--- a/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>3.979409103400144</v>
       </c>
       <c r="C2">
-        <v>2.517359331806631</v>
+        <v>2.517359331806176</v>
       </c>
       <c r="D2">
-        <v>0.2158048326899973</v>
+        <v>0.215804832690111</v>
       </c>
       <c r="E2">
-        <v>0.1867324953744358</v>
+        <v>0.1867324953743648</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.724239264175736</v>
+        <v>9.724239264175822</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7022040730416137</v>
+        <v>0.7022040730415924</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.345570113713165</v>
+        <v>3.345570113712881</v>
       </c>
       <c r="C3">
-        <v>2.13354030358397</v>
+        <v>2.133540303584027</v>
       </c>
       <c r="D3">
-        <v>0.1833473843263533</v>
+        <v>0.1833473843263391</v>
       </c>
       <c r="E3">
-        <v>0.1581096094388812</v>
+        <v>0.158109609438732</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.396957805368942</v>
+        <v>8.396957805368999</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5948753741213437</v>
+        <v>0.5948753741213864</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>2.97759880958597</v>
       </c>
       <c r="C4">
-        <v>1.90831990329076</v>
+        <v>1.908319903290646</v>
       </c>
       <c r="D4">
-        <v>0.1642795425348282</v>
+        <v>0.1642795425351693</v>
       </c>
       <c r="E4">
-        <v>0.1413422567408595</v>
+        <v>0.1413422567407991</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.613836314096318</v>
+        <v>7.613836314096432</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5319448338446051</v>
+        <v>0.5319448338446477</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.831985391529372</v>
+        <v>2.831985391529599</v>
       </c>
       <c r="C5">
-        <v>1.818667817808944</v>
+        <v>1.818667817808887</v>
       </c>
       <c r="D5">
-        <v>0.1566853568589011</v>
+        <v>0.1566853568588016</v>
       </c>
       <c r="E5">
-        <v>0.1346738076605298</v>
+        <v>0.134673807660544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.301175706036389</v>
+        <v>7.301175706036531</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.506904862039228</v>
+        <v>0.5069048620392351</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.808042844397278</v>
+        <v>2.808042844397107</v>
       </c>
       <c r="C6">
-        <v>1.803896758232668</v>
+        <v>1.803896758233066</v>
       </c>
       <c r="D6">
-        <v>0.1554339416522907</v>
+        <v>0.1554339416522197</v>
       </c>
       <c r="E6">
-        <v>0.133575451731982</v>
+        <v>0.1335754517320211</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.249609495399199</v>
+        <v>7.249609495399227</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5027798618001427</v>
+        <v>0.5027798618001214</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>2.975618629637893</v>
       </c>
       <c r="C7">
-        <v>1.907102804338706</v>
+        <v>1.907102804339218</v>
       </c>
       <c r="D7">
-        <v>0.1641764596599415</v>
+        <v>0.1641764596601263</v>
       </c>
       <c r="E7">
-        <v>0.1412517038890613</v>
+        <v>0.1412517038891252</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5316048559314765</v>
+        <v>0.5316048559314339</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.755794834398046</v>
+        <v>3.755794834397875</v>
       </c>
       <c r="C8">
-        <v>2.382517429829647</v>
+        <v>2.382517429830045</v>
       </c>
       <c r="D8">
-        <v>0.204407866291902</v>
+        <v>0.2044078662916036</v>
       </c>
       <c r="E8">
-        <v>0.1766700506352734</v>
+        <v>0.1766700506354226</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.258964685696213</v>
+        <v>9.258964685696327</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6644860972180737</v>
+        <v>0.6644860972181306</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.51286375034141</v>
+        <v>5.512863750341467</v>
       </c>
       <c r="C9">
-        <v>3.427067686532268</v>
+        <v>3.427067686531814</v>
       </c>
       <c r="D9">
-        <v>0.2925011426588497</v>
+        <v>0.2925011426582529</v>
       </c>
       <c r="E9">
-        <v>0.2548025573723933</v>
+        <v>0.2548025573724644</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.83541229973903</v>
+        <v>12.83541229973935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9569846417356018</v>
+        <v>0.9569846417357155</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>7.059230082678994</v>
       </c>
       <c r="C10">
-        <v>4.320892952223119</v>
+        <v>4.320892952222152</v>
       </c>
       <c r="D10">
-        <v>0.367472401895796</v>
+        <v>0.3674724018958386</v>
       </c>
       <c r="E10">
-        <v>0.3219873993085685</v>
+        <v>0.3219873993085187</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.207838893984373</v>
+        <v>1.207838893984359</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.861667645987779</v>
+        <v>7.861667645987836</v>
       </c>
       <c r="C11">
-        <v>4.77632436107649</v>
+        <v>4.776324361075581</v>
       </c>
       <c r="D11">
-        <v>0.4055012626017458</v>
+        <v>0.4055012626015611</v>
       </c>
       <c r="E11">
-        <v>0.356334910906746</v>
+        <v>0.3563349109067815</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.36125805536136</v>
+        <v>17.36125805536091</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.33585424106289</v>
+        <v>1.335854241062933</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.185803302647116</v>
+        <v>8.185803302647173</v>
       </c>
       <c r="C12">
-        <v>4.958753414447301</v>
+        <v>4.95875341444804</v>
       </c>
       <c r="D12">
-        <v>0.4206986789069447</v>
+        <v>0.4206986789077121</v>
       </c>
       <c r="E12">
-        <v>0.3701151818472894</v>
+        <v>0.3701151818473534</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.96479478094909</v>
+        <v>17.96479478094898</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.387170161520416</v>
+        <v>1.387170161520487</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.114962150008296</v>
+        <v>8.114962150008409</v>
       </c>
       <c r="C13">
-        <v>4.918956904090123</v>
+        <v>4.918956904090635</v>
       </c>
       <c r="D13">
-        <v>0.4173851895710641</v>
+        <v>0.4173851895714051</v>
       </c>
       <c r="E13">
-        <v>0.3671079693573276</v>
+        <v>0.3671079693572565</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.83331087769039</v>
+        <v>17.83331087769045</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.375973853755028</v>
+        <v>1.375973853755113</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.88788229008037</v>
+        <v>7.887882290080483</v>
       </c>
       <c r="C14">
-        <v>4.791110786609465</v>
+        <v>4.791110786608328</v>
       </c>
       <c r="D14">
-        <v>0.4067338370922613</v>
+        <v>0.4067338370922897</v>
       </c>
       <c r="E14">
-        <v>0.3574513743859171</v>
+        <v>0.3574513743858816</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.41025327799235</v>
+        <v>17.4102532779923</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.340012745087037</v>
+        <v>1.340012745086995</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.751661144426919</v>
+        <v>7.751661144426407</v>
       </c>
       <c r="C15">
-        <v>4.714212350046921</v>
+        <v>4.714212350046751</v>
       </c>
       <c r="D15">
-        <v>0.4003222194968004</v>
+        <v>0.4003222194973404</v>
       </c>
       <c r="E15">
-        <v>0.3516459845004931</v>
+        <v>0.3516459845005073</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17.15530128595606</v>
+        <v>17.15530128595566</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.318387536036354</v>
+        <v>1.31838753603644</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.009231846983766</v>
+        <v>7.009231846983539</v>
       </c>
       <c r="C16">
-        <v>4.292332431345017</v>
+        <v>4.292332431345244</v>
       </c>
       <c r="D16">
-        <v>0.3650835174607039</v>
+        <v>0.3650835174606044</v>
       </c>
       <c r="E16">
         <v>0.3198360253990629</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.75018805327562</v>
+        <v>15.75018805327596</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.582583133106539</v>
+        <v>6.58258313310705</v>
       </c>
       <c r="C17">
-        <v>4.047718537808407</v>
+        <v>4.047718537809658</v>
       </c>
       <c r="D17">
-        <v>0.3446045249829695</v>
+        <v>0.3446045249821879</v>
       </c>
       <c r="E17">
-        <v>0.3014225015862451</v>
+        <v>0.3014225015862735</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.93060370318753</v>
+        <v>14.93060370318764</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.131117458604351</v>
+        <v>1.131117458604322</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.346023501492709</v>
+        <v>6.346023501492596</v>
       </c>
       <c r="C18">
-        <v>3.911385144926726</v>
+        <v>3.911385144925248</v>
       </c>
       <c r="D18">
-        <v>0.3331765081193936</v>
+        <v>0.3331765081188536</v>
       </c>
       <c r="E18">
-        <v>0.291169565841578</v>
+        <v>0.2911695658414715</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.47228770386815</v>
+        <v>14.47228770386781</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.092845924016089</v>
+        <v>1.092845924016132</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.267306218636008</v>
+        <v>6.267306218634928</v>
       </c>
       <c r="C19">
-        <v>3.865905589175497</v>
+        <v>3.865905589174304</v>
       </c>
       <c r="D19">
-        <v>0.3293620222062259</v>
+        <v>0.3293620222067801</v>
       </c>
       <c r="E19">
-        <v>0.2877508215804312</v>
+        <v>0.2877508215803672</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.31915620508622</v>
+        <v>14.31915620508585</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.080081544417908</v>
+        <v>1.080081544417865</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.627051269254196</v>
+        <v>6.627051269253855</v>
       </c>
       <c r="C20">
-        <v>4.073289662124466</v>
+        <v>4.073289662124409</v>
       </c>
       <c r="D20">
-        <v>0.3467468812149264</v>
+        <v>0.3467468812146137</v>
       </c>
       <c r="E20">
-        <v>0.3033463459884516</v>
+        <v>0.3033463459885084</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15.01644557887425</v>
+        <v>15.01644557887423</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.138297115895824</v>
+        <v>1.138297115895838</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.953967064133622</v>
+        <v>7.953967064132939</v>
       </c>
       <c r="C21">
-        <v>4.828360651202047</v>
+        <v>4.828360651202161</v>
       </c>
       <c r="D21">
-        <v>0.4098383267204468</v>
+        <v>0.4098383267213421</v>
       </c>
       <c r="E21">
-        <v>0.3602643280208682</v>
+        <v>0.3602643280209179</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17.5336219102166</v>
+        <v>17.53362191021614</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.944938912559962</v>
+        <v>8.944938912559849</v>
       </c>
       <c r="C22">
-        <v>5.382659494437235</v>
+        <v>5.382659494436098</v>
       </c>
       <c r="D22">
-        <v>0.4559290880291371</v>
+        <v>0.4559290880285545</v>
       </c>
       <c r="E22">
-        <v>0.4021850586295344</v>
+        <v>0.4021850586295059</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19.35912837123391</v>
+        <v>19.35912837123351</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.506495934338247</v>
+        <v>1.506495934338162</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.40175880339541</v>
+        <v>8.401758803395524</v>
       </c>
       <c r="C23">
-        <v>5.079817603870481</v>
+        <v>5.079817603871277</v>
       </c>
       <c r="D23">
-        <v>0.4307723147436775</v>
+        <v>0.4307723147432512</v>
       </c>
       <c r="E23">
-        <v>0.379267067927934</v>
+        <v>0.37926706792787</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.36416930838953</v>
+        <v>18.36416930838959</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.421236596020634</v>
+        <v>1.421236596020663</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.606920449947381</v>
+        <v>6.606920449947268</v>
       </c>
       <c r="C24">
-        <v>4.061715766657073</v>
+        <v>4.061715766657471</v>
       </c>
       <c r="D24">
-        <v>0.3457772610862975</v>
+        <v>0.3457772610867522</v>
       </c>
       <c r="E24">
-        <v>0.3024755533880565</v>
+        <v>0.302475553388021</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.97759694722276</v>
+        <v>14.97759694722259</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.135047437483337</v>
+        <v>1.135047437483252</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.003438309863725</v>
+        <v>5.003438309863952</v>
       </c>
       <c r="C25">
-        <v>3.127607394446159</v>
+        <v>3.127607394446102</v>
       </c>
       <c r="D25">
-        <v>0.2672938856991323</v>
+        <v>0.2672938856990328</v>
       </c>
       <c r="E25">
-        <v>0.2323602625375969</v>
+        <v>0.232360262537604</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.81654692027735</v>
+        <v>11.81654692027743</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8730553307322282</v>
+        <v>0.8730553307322566</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>3.979409103400144</v>
       </c>
       <c r="C2">
-        <v>2.517359331806176</v>
+        <v>2.517359331806631</v>
       </c>
       <c r="D2">
-        <v>0.215804832690111</v>
+        <v>0.2158048326899973</v>
       </c>
       <c r="E2">
-        <v>0.1867324953743648</v>
+        <v>0.1867324953744358</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.724239264175822</v>
+        <v>9.724239264175736</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7022040730415924</v>
+        <v>0.7022040730416137</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.345570113712881</v>
+        <v>3.345570113713165</v>
       </c>
       <c r="C3">
-        <v>2.133540303584027</v>
+        <v>2.13354030358397</v>
       </c>
       <c r="D3">
-        <v>0.1833473843263391</v>
+        <v>0.1833473843263533</v>
       </c>
       <c r="E3">
-        <v>0.158109609438732</v>
+        <v>0.1581096094388812</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.396957805368999</v>
+        <v>8.396957805368942</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5948753741213864</v>
+        <v>0.5948753741213437</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>2.97759880958597</v>
       </c>
       <c r="C4">
-        <v>1.908319903290646</v>
+        <v>1.90831990329076</v>
       </c>
       <c r="D4">
-        <v>0.1642795425351693</v>
+        <v>0.1642795425348282</v>
       </c>
       <c r="E4">
-        <v>0.1413422567407991</v>
+        <v>0.1413422567408595</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.613836314096432</v>
+        <v>7.613836314096318</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5319448338446477</v>
+        <v>0.5319448338446051</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.831985391529599</v>
+        <v>2.831985391529372</v>
       </c>
       <c r="C5">
-        <v>1.818667817808887</v>
+        <v>1.818667817808944</v>
       </c>
       <c r="D5">
-        <v>0.1566853568588016</v>
+        <v>0.1566853568589011</v>
       </c>
       <c r="E5">
-        <v>0.134673807660544</v>
+        <v>0.1346738076605298</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.301175706036531</v>
+        <v>7.301175706036389</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5069048620392351</v>
+        <v>0.506904862039228</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.808042844397107</v>
+        <v>2.808042844397278</v>
       </c>
       <c r="C6">
-        <v>1.803896758233066</v>
+        <v>1.803896758232668</v>
       </c>
       <c r="D6">
-        <v>0.1554339416522197</v>
+        <v>0.1554339416522907</v>
       </c>
       <c r="E6">
-        <v>0.1335754517320211</v>
+        <v>0.133575451731982</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.249609495399227</v>
+        <v>7.249609495399199</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5027798618001214</v>
+        <v>0.5027798618001427</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>2.975618629637893</v>
       </c>
       <c r="C7">
-        <v>1.907102804339218</v>
+        <v>1.907102804338706</v>
       </c>
       <c r="D7">
-        <v>0.1641764596601263</v>
+        <v>0.1641764596599415</v>
       </c>
       <c r="E7">
-        <v>0.1412517038891252</v>
+        <v>0.1412517038890613</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5316048559314339</v>
+        <v>0.5316048559314765</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.755794834397875</v>
+        <v>3.755794834398046</v>
       </c>
       <c r="C8">
-        <v>2.382517429830045</v>
+        <v>2.382517429829647</v>
       </c>
       <c r="D8">
-        <v>0.2044078662916036</v>
+        <v>0.204407866291902</v>
       </c>
       <c r="E8">
-        <v>0.1766700506354226</v>
+        <v>0.1766700506352734</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.258964685696327</v>
+        <v>9.258964685696213</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6644860972181306</v>
+        <v>0.6644860972180737</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.512863750341467</v>
+        <v>5.51286375034141</v>
       </c>
       <c r="C9">
-        <v>3.427067686531814</v>
+        <v>3.427067686532268</v>
       </c>
       <c r="D9">
-        <v>0.2925011426582529</v>
+        <v>0.2925011426588497</v>
       </c>
       <c r="E9">
-        <v>0.2548025573724644</v>
+        <v>0.2548025573723933</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.83541229973935</v>
+        <v>12.83541229973903</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9569846417357155</v>
+        <v>0.9569846417356018</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>7.059230082678994</v>
       </c>
       <c r="C10">
-        <v>4.320892952222152</v>
+        <v>4.320892952223119</v>
       </c>
       <c r="D10">
-        <v>0.3674724018958386</v>
+        <v>0.367472401895796</v>
       </c>
       <c r="E10">
-        <v>0.3219873993085187</v>
+        <v>0.3219873993085685</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.207838893984359</v>
+        <v>1.207838893984373</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.861667645987836</v>
+        <v>7.861667645987779</v>
       </c>
       <c r="C11">
-        <v>4.776324361075581</v>
+        <v>4.77632436107649</v>
       </c>
       <c r="D11">
-        <v>0.4055012626015611</v>
+        <v>0.4055012626017458</v>
       </c>
       <c r="E11">
-        <v>0.3563349109067815</v>
+        <v>0.356334910906746</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.36125805536091</v>
+        <v>17.36125805536136</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.335854241062933</v>
+        <v>1.33585424106289</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.185803302647173</v>
+        <v>8.185803302647116</v>
       </c>
       <c r="C12">
-        <v>4.95875341444804</v>
+        <v>4.958753414447301</v>
       </c>
       <c r="D12">
-        <v>0.4206986789077121</v>
+        <v>0.4206986789069447</v>
       </c>
       <c r="E12">
-        <v>0.3701151818473534</v>
+        <v>0.3701151818472894</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.96479478094898</v>
+        <v>17.96479478094909</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.387170161520487</v>
+        <v>1.387170161520416</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.114962150008409</v>
+        <v>8.114962150008296</v>
       </c>
       <c r="C13">
-        <v>4.918956904090635</v>
+        <v>4.918956904090123</v>
       </c>
       <c r="D13">
-        <v>0.4173851895714051</v>
+        <v>0.4173851895710641</v>
       </c>
       <c r="E13">
-        <v>0.3671079693572565</v>
+        <v>0.3671079693573276</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.83331087769045</v>
+        <v>17.83331087769039</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.375973853755113</v>
+        <v>1.375973853755028</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.887882290080483</v>
+        <v>7.88788229008037</v>
       </c>
       <c r="C14">
-        <v>4.791110786608328</v>
+        <v>4.791110786609465</v>
       </c>
       <c r="D14">
-        <v>0.4067338370922897</v>
+        <v>0.4067338370922613</v>
       </c>
       <c r="E14">
-        <v>0.3574513743858816</v>
+        <v>0.3574513743859171</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.4102532779923</v>
+        <v>17.41025327799235</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.340012745086995</v>
+        <v>1.340012745087037</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.751661144426407</v>
+        <v>7.751661144426919</v>
       </c>
       <c r="C15">
-        <v>4.714212350046751</v>
+        <v>4.714212350046921</v>
       </c>
       <c r="D15">
-        <v>0.4003222194973404</v>
+        <v>0.4003222194968004</v>
       </c>
       <c r="E15">
-        <v>0.3516459845005073</v>
+        <v>0.3516459845004931</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17.15530128595566</v>
+        <v>17.15530128595606</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.31838753603644</v>
+        <v>1.318387536036354</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.009231846983539</v>
+        <v>7.009231846983766</v>
       </c>
       <c r="C16">
-        <v>4.292332431345244</v>
+        <v>4.292332431345017</v>
       </c>
       <c r="D16">
-        <v>0.3650835174606044</v>
+        <v>0.3650835174607039</v>
       </c>
       <c r="E16">
         <v>0.3198360253990629</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.75018805327596</v>
+        <v>15.75018805327562</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.58258313310705</v>
+        <v>6.582583133106539</v>
       </c>
       <c r="C17">
-        <v>4.047718537809658</v>
+        <v>4.047718537808407</v>
       </c>
       <c r="D17">
-        <v>0.3446045249821879</v>
+        <v>0.3446045249829695</v>
       </c>
       <c r="E17">
-        <v>0.3014225015862735</v>
+        <v>0.3014225015862451</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.93060370318764</v>
+        <v>14.93060370318753</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.131117458604322</v>
+        <v>1.131117458604351</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.346023501492596</v>
+        <v>6.346023501492709</v>
       </c>
       <c r="C18">
-        <v>3.911385144925248</v>
+        <v>3.911385144926726</v>
       </c>
       <c r="D18">
-        <v>0.3331765081188536</v>
+        <v>0.3331765081193936</v>
       </c>
       <c r="E18">
-        <v>0.2911695658414715</v>
+        <v>0.291169565841578</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.47228770386781</v>
+        <v>14.47228770386815</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.092845924016132</v>
+        <v>1.092845924016089</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.267306218634928</v>
+        <v>6.267306218636008</v>
       </c>
       <c r="C19">
-        <v>3.865905589174304</v>
+        <v>3.865905589175497</v>
       </c>
       <c r="D19">
-        <v>0.3293620222067801</v>
+        <v>0.3293620222062259</v>
       </c>
       <c r="E19">
-        <v>0.2877508215803672</v>
+        <v>0.2877508215804312</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.31915620508585</v>
+        <v>14.31915620508622</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.080081544417865</v>
+        <v>1.080081544417908</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.627051269253855</v>
+        <v>6.627051269254196</v>
       </c>
       <c r="C20">
-        <v>4.073289662124409</v>
+        <v>4.073289662124466</v>
       </c>
       <c r="D20">
-        <v>0.3467468812146137</v>
+        <v>0.3467468812149264</v>
       </c>
       <c r="E20">
-        <v>0.3033463459885084</v>
+        <v>0.3033463459884516</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15.01644557887423</v>
+        <v>15.01644557887425</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.138297115895838</v>
+        <v>1.138297115895824</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.953967064132939</v>
+        <v>7.953967064133622</v>
       </c>
       <c r="C21">
-        <v>4.828360651202161</v>
+        <v>4.828360651202047</v>
       </c>
       <c r="D21">
-        <v>0.4098383267213421</v>
+        <v>0.4098383267204468</v>
       </c>
       <c r="E21">
-        <v>0.3602643280209179</v>
+        <v>0.3602643280208682</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17.53362191021614</v>
+        <v>17.5336219102166</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.944938912559849</v>
+        <v>8.944938912559962</v>
       </c>
       <c r="C22">
-        <v>5.382659494436098</v>
+        <v>5.382659494437235</v>
       </c>
       <c r="D22">
-        <v>0.4559290880285545</v>
+        <v>0.4559290880291371</v>
       </c>
       <c r="E22">
-        <v>0.4021850586295059</v>
+        <v>0.4021850586295344</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19.35912837123351</v>
+        <v>19.35912837123391</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.506495934338162</v>
+        <v>1.506495934338247</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.401758803395524</v>
+        <v>8.40175880339541</v>
       </c>
       <c r="C23">
-        <v>5.079817603871277</v>
+        <v>5.079817603870481</v>
       </c>
       <c r="D23">
-        <v>0.4307723147432512</v>
+        <v>0.4307723147436775</v>
       </c>
       <c r="E23">
-        <v>0.37926706792787</v>
+        <v>0.379267067927934</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.36416930838959</v>
+        <v>18.36416930838953</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.421236596020663</v>
+        <v>1.421236596020634</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.606920449947268</v>
+        <v>6.606920449947381</v>
       </c>
       <c r="C24">
-        <v>4.061715766657471</v>
+        <v>4.061715766657073</v>
       </c>
       <c r="D24">
-        <v>0.3457772610867522</v>
+        <v>0.3457772610862975</v>
       </c>
       <c r="E24">
-        <v>0.302475553388021</v>
+        <v>0.3024755533880565</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.97759694722259</v>
+        <v>14.97759694722276</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.135047437483252</v>
+        <v>1.135047437483337</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.003438309863952</v>
+        <v>5.003438309863725</v>
       </c>
       <c r="C25">
-        <v>3.127607394446102</v>
+        <v>3.127607394446159</v>
       </c>
       <c r="D25">
-        <v>0.2672938856990328</v>
+        <v>0.2672938856991323</v>
       </c>
       <c r="E25">
-        <v>0.232360262537604</v>
+        <v>0.2323602625375969</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.81654692027743</v>
+        <v>11.81654692027735</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8730553307322566</v>
+        <v>0.8730553307322282</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.979409103400144</v>
+        <v>3.922907025438406</v>
       </c>
       <c r="C2">
-        <v>2.517359331806631</v>
+        <v>2.489908374999914</v>
       </c>
       <c r="D2">
-        <v>0.2158048326899973</v>
+        <v>0.2142571614554925</v>
       </c>
       <c r="E2">
-        <v>0.1867324953744358</v>
+        <v>0.1858629511653334</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000743845914997297</v>
       </c>
       <c r="H2">
-        <v>9.724239264175736</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.71625269496738</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7022040730416137</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.6965721349136587</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.345570113713165</v>
+        <v>3.300454413221928</v>
       </c>
       <c r="C3">
-        <v>2.13354030358397</v>
+        <v>2.112037848390685</v>
       </c>
       <c r="D3">
-        <v>0.1833473843263533</v>
+        <v>0.1820832637092451</v>
       </c>
       <c r="E3">
-        <v>0.1581096094388812</v>
+        <v>0.1573719238869202</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007619422846767142</v>
       </c>
       <c r="H3">
-        <v>8.396957805368942</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.399922948149282</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5948753741213437</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5903633948571212</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.97759880958597</v>
+        <v>2.939157550547236</v>
       </c>
       <c r="C4">
-        <v>1.90831990329076</v>
+        <v>1.89030087862244</v>
       </c>
       <c r="D4">
-        <v>0.1642795425348282</v>
+        <v>0.1631747726809891</v>
       </c>
       <c r="E4">
-        <v>0.1413422567408595</v>
+        <v>0.1406715909990304</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007730601142460277</v>
       </c>
       <c r="H4">
-        <v>7.613836314096318</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.622966462495924</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5319448338446051</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.5280706698790141</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.831985391529372</v>
+        <v>2.796209293301672</v>
       </c>
       <c r="C5">
-        <v>1.818667817808944</v>
+        <v>1.802038482261594</v>
       </c>
       <c r="D5">
-        <v>0.1566853568589011</v>
+        <v>0.1556426846844374</v>
       </c>
       <c r="E5">
-        <v>0.1346738076605298</v>
+        <v>0.1340276868140187</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007776063700599563</v>
       </c>
       <c r="H5">
-        <v>7.301175706036389</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.312710515063429</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.506904862039228</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.5032812692955488</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.808042844397278</v>
+        <v>2.772706600824449</v>
       </c>
       <c r="C6">
-        <v>1.803896758232668</v>
+        <v>1.787496688999113</v>
       </c>
       <c r="D6">
-        <v>0.1554339416522907</v>
+        <v>0.154401430587356</v>
       </c>
       <c r="E6">
-        <v>0.133575451731982</v>
+        <v>0.1329332573874815</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007783625792410877</v>
       </c>
       <c r="H6">
-        <v>7.249609495399199</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.261537907719685</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5027798618001427</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.4991973899236086</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.975618629637893</v>
+        <v>2.937213507085687</v>
       </c>
       <c r="C7">
-        <v>1.907102804338706</v>
+        <v>1.889102627867373</v>
       </c>
       <c r="D7">
-        <v>0.1641764596599415</v>
+        <v>0.1630725377832789</v>
       </c>
       <c r="E7">
-        <v>0.1412517038890613</v>
+        <v>0.1405813795362327</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007731213466079363</v>
       </c>
       <c r="H7">
-        <v>7.609595307811162</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.618758284445647</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5316048559314765</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.5277341054675802</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.755794834398046</v>
+        <v>3.703301794385197</v>
       </c>
       <c r="C8">
-        <v>2.382517429829647</v>
+        <v>2.357161317488476</v>
       </c>
       <c r="D8">
-        <v>0.204407866291902</v>
+        <v>0.2029616275396222</v>
       </c>
       <c r="E8">
-        <v>0.1766700506352734</v>
+        <v>0.1758493814958442</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007500934778466128</v>
       </c>
       <c r="H8">
-        <v>9.258964685696213</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.254893197060937</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6644860972180737</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.6592528778540725</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.51286375034141</v>
+        <v>5.428596128271522</v>
       </c>
       <c r="C9">
-        <v>3.427067686532268</v>
+        <v>3.385122621610037</v>
       </c>
       <c r="D9">
-        <v>0.2925011426588497</v>
+        <v>0.2902093489057904</v>
       </c>
       <c r="E9">
-        <v>0.2548025573723933</v>
+        <v>0.2535266690994931</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000704171297462705</v>
       </c>
       <c r="H9">
-        <v>12.83541229973903</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.79879132164524</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9569846417356018</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.9484737507931271</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.059230082678994</v>
+        <v>6.945334982696977</v>
       </c>
       <c r="C10">
-        <v>4.320892952223119</v>
+        <v>4.263565356837148</v>
       </c>
       <c r="D10">
-        <v>0.367472401895796</v>
+        <v>0.3643210631294664</v>
       </c>
       <c r="E10">
-        <v>0.3219873993085685</v>
+        <v>0.3201612118154102</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.000668369416939539</v>
       </c>
       <c r="H10">
-        <v>15.84564945156819</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.77615291964059</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.207838893984373</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.196063239724168</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.861667645987779</v>
+        <v>7.731233597062271</v>
       </c>
       <c r="C11">
-        <v>4.77632436107649</v>
+        <v>4.710465301791942</v>
       </c>
       <c r="D11">
-        <v>0.4055012626017458</v>
+        <v>0.4018471702703152</v>
       </c>
       <c r="E11">
-        <v>0.356334910906746</v>
+        <v>0.3541562350806302</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006510528942291563</v>
       </c>
       <c r="H11">
-        <v>17.36125805536136</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>17.27263665018438</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.33585424106289</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.322185011056504</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.185803302647116</v>
+        <v>8.048385922720797</v>
       </c>
       <c r="C12">
-        <v>4.958753414447301</v>
+        <v>4.889305281245697</v>
       </c>
       <c r="D12">
-        <v>0.4206986789069447</v>
+        <v>0.4168281974819479</v>
       </c>
       <c r="E12">
-        <v>0.3701151818472894</v>
+        <v>0.3677789732936532</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006442681169964141</v>
       </c>
       <c r="H12">
-        <v>17.96479478094909</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17.86796566350745</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.387170161520416</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.372688158615006</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.114962150008296</v>
+        <v>7.979087547884717</v>
       </c>
       <c r="C13">
-        <v>4.918956904090123</v>
+        <v>4.850300993034693</v>
       </c>
       <c r="D13">
-        <v>0.4173851895710641</v>
+        <v>0.4135627080076745</v>
       </c>
       <c r="E13">
-        <v>0.3671079693573276</v>
+        <v>0.364806986632324</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006457411595820642</v>
       </c>
       <c r="H13">
-        <v>17.83331087769039</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.73830118423297</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.375973853755028</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.361672047852792</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.88788229008037</v>
+        <v>7.756890497135259</v>
       </c>
       <c r="C14">
-        <v>4.791110786609465</v>
+        <v>4.72496478306067</v>
       </c>
       <c r="D14">
-        <v>0.4067338370922613</v>
+        <v>0.4030625466871811</v>
       </c>
       <c r="E14">
-        <v>0.3574513743859171</v>
+        <v>0.3552602994541303</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006504998616538425</v>
       </c>
       <c r="H14">
-        <v>17.41025327799235</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>17.3209790228355</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.340012745087037</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.326278876168601</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.751661144426919</v>
+        <v>7.623554685394595</v>
       </c>
       <c r="C15">
-        <v>4.714212350046921</v>
+        <v>4.649551317987402</v>
       </c>
       <c r="D15">
-        <v>0.4003222194968004</v>
+        <v>0.3967397351560749</v>
       </c>
       <c r="E15">
-        <v>0.3516459845004931</v>
+        <v>0.3495187033540432</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006533820678817275</v>
       </c>
       <c r="H15">
-        <v>17.15530128595606</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>17.0693991372803</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.318387536036354</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.304987529003483</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.009231846983766</v>
+        <v>6.896336126384654</v>
       </c>
       <c r="C16">
-        <v>4.292332431345017</v>
+        <v>4.23552172571658</v>
       </c>
       <c r="D16">
-        <v>0.3650835174607039</v>
+        <v>0.3619620817206766</v>
       </c>
       <c r="E16">
-        <v>0.3198360253990629</v>
+        <v>0.3180301585336025</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006694744133020341</v>
       </c>
       <c r="H16">
-        <v>15.75018805327562</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.68183148271402</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.199815387676665</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.188152645670797</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.582583133106539</v>
+        <v>6.478087095293631</v>
       </c>
       <c r="C17">
-        <v>4.047718537808407</v>
+        <v>3.995258101447007</v>
       </c>
       <c r="D17">
-        <v>0.3446045249829695</v>
+        <v>0.341732081205123</v>
       </c>
       <c r="E17">
-        <v>0.3014225015862451</v>
+        <v>0.2997827728915112</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006790370101873339</v>
       </c>
       <c r="H17">
-        <v>14.93060370318753</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.87174980818918</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.131117458604351</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.120396452722559</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.346023501492709</v>
+        <v>6.246093996437139</v>
       </c>
       <c r="C18">
-        <v>3.911385144926726</v>
+        <v>3.861293983308315</v>
       </c>
       <c r="D18">
-        <v>0.3331765081193936</v>
+        <v>0.3304375908907531</v>
       </c>
       <c r="E18">
-        <v>0.291169565841578</v>
+        <v>0.2896165669949724</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006844464722296406</v>
       </c>
       <c r="H18">
-        <v>14.47228770386815</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.41853756631943</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.092845924016089</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.082631231751463</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.267306218636008</v>
+        <v>6.168883232351675</v>
       </c>
       <c r="C19">
-        <v>3.865905589175497</v>
+        <v>3.816596683240505</v>
       </c>
       <c r="D19">
-        <v>0.3293620222062259</v>
+        <v>0.326666857754816</v>
       </c>
       <c r="E19">
-        <v>0.2877508215804312</v>
+        <v>0.2862258639053152</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000686264304930308</v>
       </c>
       <c r="H19">
-        <v>14.31915620508622</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.26707959284539</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.080081544417908</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.070032977663303</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.627051269254196</v>
+        <v>6.521689938424743</v>
       </c>
       <c r="C20">
-        <v>4.073289662124466</v>
+        <v>4.020380609578751</v>
       </c>
       <c r="D20">
-        <v>0.3467468812149264</v>
+        <v>0.3438489863696788</v>
       </c>
       <c r="E20">
-        <v>0.3033463459884516</v>
+        <v>0.3016898937318047</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006780289012712458</v>
       </c>
       <c r="H20">
-        <v>15.01644557887425</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.95661948672304</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.138297115895824</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.127479712020758</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.953967064133622</v>
+        <v>7.821563881995644</v>
       </c>
       <c r="C21">
-        <v>4.828360651202047</v>
+        <v>4.761488752157845</v>
       </c>
       <c r="D21">
-        <v>0.4098383267204468</v>
+        <v>0.4061234494079713</v>
       </c>
       <c r="E21">
-        <v>0.3602643280208682</v>
+        <v>0.3580417334802348</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.000649109119400585</v>
       </c>
       <c r="H21">
-        <v>17.5336219102166</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.44269347172548</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.350489450281941</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.336591793912717</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.944938912559962</v>
+        <v>8.79034121967635</v>
       </c>
       <c r="C22">
-        <v>5.382659494437235</v>
+        <v>5.304415609895841</v>
       </c>
       <c r="D22">
-        <v>0.4559290880291371</v>
+        <v>0.4515172146174677</v>
       </c>
       <c r="E22">
-        <v>0.4021850586295344</v>
+        <v>0.3994412219905072</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006288108492343874</v>
       </c>
       <c r="H22">
-        <v>19.35912837123391</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>19.24182569635451</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.506495934338247</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.489984408413505</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.40175880339541</v>
+        <v>8.259578071471651</v>
       </c>
       <c r="C23">
-        <v>5.079817603870481</v>
+        <v>5.007925937456037</v>
       </c>
       <c r="D23">
-        <v>0.4307723147436775</v>
+        <v>0.42675296420731</v>
       </c>
       <c r="E23">
-        <v>0.379267067927934</v>
+        <v>0.3768206241390999</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006398106166001227</v>
       </c>
       <c r="H23">
-        <v>18.36416930838953</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.26170176480287</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.421236596020634</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.406196024724508</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.606920449947381</v>
+        <v>6.501951118090005</v>
       </c>
       <c r="C24">
-        <v>4.061715766657073</v>
+        <v>4.0090099350939</v>
       </c>
       <c r="D24">
-        <v>0.3457772610862975</v>
+        <v>0.3428909020094579</v>
       </c>
       <c r="E24">
-        <v>0.3024755533880565</v>
+        <v>0.3008266886271116</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006784849365293333</v>
       </c>
       <c r="H24">
-        <v>14.97759694722276</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.91821148174989</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.135047437483337</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.124273722133637</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.003438309863725</v>
+        <v>4.928497787665719</v>
       </c>
       <c r="C25">
-        <v>3.127607394446159</v>
+        <v>3.090525899661998</v>
       </c>
       <c r="D25">
-        <v>0.2672938856991323</v>
+        <v>0.2652595697247619</v>
       </c>
       <c r="E25">
-        <v>0.2323602625375969</v>
+        <v>0.2312335560259982</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007168110307278861</v>
       </c>
       <c r="H25">
-        <v>11.81654692027735</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.78981632012804</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8730553307322282</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.8655330895076219</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.922907025438406</v>
+        <v>6.478746421206949</v>
       </c>
       <c r="C2">
-        <v>2.489908374999914</v>
+        <v>2.041430882348607</v>
       </c>
       <c r="D2">
-        <v>0.2142571614554925</v>
+        <v>0.2139035871238804</v>
       </c>
       <c r="E2">
-        <v>0.1858629511653334</v>
+        <v>1.495556042911929</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000743845914997297</v>
+        <v>0.000745026753675988</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.71625269496738</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.947737681354752</v>
       </c>
       <c r="L2">
-        <v>0.6965721349136587</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>3.732212023463575</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.300454413221928</v>
+        <v>5.515364398605755</v>
       </c>
       <c r="C3">
-        <v>2.112037848390685</v>
+        <v>1.729946498582137</v>
       </c>
       <c r="D3">
-        <v>0.1820832637092451</v>
+        <v>0.1820091890683528</v>
       </c>
       <c r="E3">
-        <v>0.1573719238869202</v>
+        <v>1.25792477043872</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007619422846767142</v>
+        <v>0.0007622441513950307</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.399922948149282</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.655769034228129</v>
       </c>
       <c r="L3">
-        <v>0.5903633948571212</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>3.417596518929798</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.939157550547236</v>
+        <v>4.949313943735206</v>
       </c>
       <c r="C4">
-        <v>1.89030087862244</v>
+        <v>1.547260432383212</v>
       </c>
       <c r="D4">
-        <v>0.1631747726809891</v>
+        <v>0.1632234325314812</v>
       </c>
       <c r="E4">
-        <v>0.1406715909990304</v>
+        <v>1.119588891889649</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007730601142460277</v>
+        <v>0.0007728334487563355</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.622966462495924</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.484303162456882</v>
       </c>
       <c r="L4">
-        <v>0.5280706698790141</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>3.232527047079031</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.796209293301672</v>
+        <v>4.723873940266913</v>
       </c>
       <c r="C5">
-        <v>1.802038482261594</v>
+        <v>1.474561822668875</v>
       </c>
       <c r="D5">
-        <v>0.1556426846844374</v>
+        <v>0.1557319080527577</v>
       </c>
       <c r="E5">
-        <v>0.1340276868140187</v>
+        <v>1.064736663600911</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007776063700599563</v>
+        <v>0.0007771660936573753</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.312710515063429</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.416028846680902</v>
       </c>
       <c r="L5">
-        <v>0.5032812692955488</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>3.158797923567107</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.772706600824449</v>
+        <v>4.686725327039369</v>
       </c>
       <c r="C6">
-        <v>1.787496688999113</v>
+        <v>1.462585330115246</v>
       </c>
       <c r="D6">
-        <v>0.154401430587356</v>
+        <v>0.1544968886836244</v>
       </c>
       <c r="E6">
-        <v>0.1329332573874815</v>
+        <v>1.055710573191362</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007783625792410877</v>
+        <v>0.0007778869130843358</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.261537907719685</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.404779173732251</v>
       </c>
       <c r="L6">
-        <v>0.4991973899236086</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>3.14664813150884</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.937213507085687</v>
+        <v>4.946253802182639</v>
       </c>
       <c r="C7">
-        <v>1.889102627867373</v>
+        <v>1.546273401113297</v>
       </c>
       <c r="D7">
-        <v>0.1630725377832789</v>
+        <v>0.1631217797099538</v>
       </c>
       <c r="E7">
-        <v>0.1405813795362327</v>
+        <v>1.118843428720936</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007731213466079363</v>
+        <v>0.0007728917943933884</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.618758284445647</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.483376346897558</v>
       </c>
       <c r="L7">
-        <v>0.5277341054675802</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>3.231526293143702</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.703301794385197</v>
+        <v>6.140505526937488</v>
       </c>
       <c r="C8">
-        <v>2.357161317488476</v>
+        <v>1.9319822520294</v>
       </c>
       <c r="D8">
-        <v>0.2029616275396222</v>
+        <v>0.2027165226268721</v>
       </c>
       <c r="E8">
-        <v>0.1758493814958442</v>
+        <v>1.411792398587977</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007500934778466128</v>
+        <v>0.0007509682430384742</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.254893197060937</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.845205811799431</v>
       </c>
       <c r="L8">
-        <v>0.6592528778540725</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>3.621818403514339</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.428596128271522</v>
+        <v>8.753019125035621</v>
       </c>
       <c r="C9">
-        <v>3.385122621610037</v>
+        <v>2.780182185138131</v>
       </c>
       <c r="D9">
-        <v>0.2902093489057904</v>
+        <v>0.2888177572788067</v>
       </c>
       <c r="E9">
-        <v>0.2535266690994931</v>
+        <v>2.069322567126022</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000704171297462705</v>
+        <v>0.0007073600551150694</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.79879132164524</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.637877448015018</v>
       </c>
       <c r="L9">
-        <v>0.9484737507931271</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>4.471735984957007</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.945334982696977</v>
+        <v>10.97108663429151</v>
       </c>
       <c r="C10">
-        <v>4.263565356837148</v>
+        <v>3.506247192763283</v>
       </c>
       <c r="D10">
-        <v>0.3643210631294664</v>
+        <v>0.3613472957247552</v>
       </c>
       <c r="E10">
-        <v>0.3201612118154102</v>
+        <v>2.649740965540005</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000668369416939539</v>
+        <v>0.0006734621531567063</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.77615291964059</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.3124051922875</v>
       </c>
       <c r="L10">
-        <v>1.196063239724168</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>5.186828026625221</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.731233597062271</v>
+        <v>12.09361389833032</v>
       </c>
       <c r="C11">
-        <v>4.710465301791942</v>
+        <v>3.876126265183586</v>
       </c>
       <c r="D11">
-        <v>0.4018471702703152</v>
+        <v>0.3978336976816195</v>
       </c>
       <c r="E11">
-        <v>0.3541562350806302</v>
+        <v>2.952846630506741</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006510528942291563</v>
+        <v>0.0006570942759530991</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.27263665018438</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.65440267177776</v>
       </c>
       <c r="L11">
-        <v>1.322185011056504</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>5.545880727871861</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.048385922720797</v>
+        <v>12.54164941431827</v>
       </c>
       <c r="C12">
-        <v>4.889305281245697</v>
+        <v>4.02425541507688</v>
       </c>
       <c r="D12">
-        <v>0.4168281974819479</v>
+        <v>0.4123518032280202</v>
       </c>
       <c r="E12">
-        <v>0.3677789732936532</v>
+        <v>3.075808898006272</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006442681169964141</v>
+        <v>0.0006506852082155383</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.86796566350745</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.791033861691943</v>
       </c>
       <c r="L12">
-        <v>1.372688158615006</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>5.688600264339755</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.979087547884717</v>
+        <v>12.44399274292948</v>
       </c>
       <c r="C13">
-        <v>4.850300993034693</v>
+        <v>3.991943132952883</v>
       </c>
       <c r="D13">
-        <v>0.4135627080076745</v>
+        <v>0.4091896009815486</v>
       </c>
       <c r="E13">
-        <v>0.364806986632324</v>
+        <v>3.048906035572159</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006457411595820642</v>
+        <v>0.0006520765137575339</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.73830118423297</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.761246348695408</v>
       </c>
       <c r="L13">
-        <v>1.361672047852792</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>5.65752186833754</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.756890497135259</v>
+        <v>12.12996377684237</v>
       </c>
       <c r="C14">
-        <v>4.72496478306067</v>
+        <v>3.888133332164045</v>
       </c>
       <c r="D14">
-        <v>0.4030625466871811</v>
+        <v>0.3990125550618018</v>
       </c>
       <c r="E14">
-        <v>0.3552602994541303</v>
+        <v>2.962778959670516</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006504998616538425</v>
+        <v>0.0006565717916270341</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.3209790228355</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.665484964891505</v>
       </c>
       <c r="L14">
-        <v>1.326278876168601</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>5.557472686187566</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.623554685394595</v>
+        <v>11.94085529991958</v>
       </c>
       <c r="C15">
-        <v>4.649551317987402</v>
+        <v>3.825687898171736</v>
       </c>
       <c r="D15">
-        <v>0.3967397351560749</v>
+        <v>0.3928777455746371</v>
       </c>
       <c r="E15">
-        <v>0.3495187033540432</v>
+        <v>2.911189385621412</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006533820678817275</v>
+        <v>0.0006592949505471215</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.0693991372803</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.607835253084787</v>
       </c>
       <c r="L15">
-        <v>1.304987529003483</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>5.49714155969167</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.896336126384654</v>
+        <v>10.9005089993891</v>
       </c>
       <c r="C16">
-        <v>4.23552172571658</v>
+        <v>3.483048889294423</v>
       </c>
       <c r="D16">
-        <v>0.3619620817206766</v>
+        <v>0.359048103645037</v>
       </c>
       <c r="E16">
-        <v>0.3180301585336025</v>
+        <v>2.630908419020841</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006694744133020341</v>
+        <v>0.0006745071761355963</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.68183148271402</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.290917379962551</v>
       </c>
       <c r="L16">
-        <v>1.188152645670797</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>5.164185223542177</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.478087095293631</v>
+        <v>10.29518814952701</v>
       </c>
       <c r="C17">
-        <v>3.995258101447007</v>
+        <v>3.28435198521845</v>
       </c>
       <c r="D17">
-        <v>0.341732081205123</v>
+        <v>0.3393046454219331</v>
       </c>
       <c r="E17">
-        <v>0.2997827728915112</v>
+        <v>2.470418702678941</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006790370101873339</v>
+        <v>0.0006835538329809142</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.87174980818918</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.106692886037067</v>
       </c>
       <c r="L17">
-        <v>1.120396452722559</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>4.969671537030024</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.246093996437139</v>
+        <v>9.957184097831032</v>
       </c>
       <c r="C18">
-        <v>3.861293983308315</v>
+        <v>3.173605126939663</v>
       </c>
       <c r="D18">
-        <v>0.3304375908907531</v>
+        <v>0.3282617634808105</v>
       </c>
       <c r="E18">
-        <v>0.2896165669949724</v>
+        <v>2.381580902229999</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006844464722296406</v>
+        <v>0.0006886739566081631</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.41853756631943</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.003876789656815</v>
       </c>
       <c r="L18">
-        <v>1.082631231751463</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>4.860819797000829</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.168883232351675</v>
+        <v>9.844331450164532</v>
       </c>
       <c r="C19">
-        <v>3.816596683240505</v>
+        <v>3.136660593205136</v>
       </c>
       <c r="D19">
-        <v>0.326666857754816</v>
+        <v>0.3245718987594444</v>
       </c>
       <c r="E19">
-        <v>0.2862258639053152</v>
+        <v>2.352039777511081</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000686264304930308</v>
+        <v>0.0006903949800724399</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.26707959284539</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.969556786832953</v>
       </c>
       <c r="L19">
-        <v>1.070032977663303</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>4.824439718383758</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.521689938424743</v>
+        <v>10.35853557668474</v>
       </c>
       <c r="C20">
-        <v>4.020380609578751</v>
+        <v>3.305123721847792</v>
       </c>
       <c r="D20">
-        <v>0.3438489863696788</v>
+        <v>0.3413728111664511</v>
       </c>
       <c r="E20">
-        <v>0.3016898937318047</v>
+        <v>2.487129293299859</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006780289012712458</v>
+        <v>0.0006825998500231407</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.95661948672304</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.125966431768333</v>
       </c>
       <c r="L20">
-        <v>1.127479712020758</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>4.99005347453658</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.821563881995644</v>
+        <v>12.22150880035315</v>
       </c>
       <c r="C21">
-        <v>4.761488752157845</v>
+        <v>3.918380886442719</v>
       </c>
       <c r="D21">
-        <v>0.4061234494079713</v>
+        <v>0.4019806781105046</v>
       </c>
       <c r="E21">
-        <v>0.3580417334802348</v>
+        <v>2.98782685186265</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.000649109119400585</v>
+        <v>0.0006552579323390739</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.44269347172548</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.693397260629126</v>
       </c>
       <c r="L21">
-        <v>1.336591793912717</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>5.586656344255346</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.79034121967635</v>
+        <v>13.57895852908825</v>
       </c>
       <c r="C22">
-        <v>5.304415609895841</v>
+        <v>4.368371245069625</v>
       </c>
       <c r="D22">
-        <v>0.4515172146174677</v>
+        <v>0.4458599396644018</v>
       </c>
       <c r="E22">
-        <v>0.3994412219905072</v>
+        <v>3.365235219218903</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006288108492343874</v>
+        <v>0.0006360901211013597</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.24182569635451</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4.107668711519409</v>
       </c>
       <c r="L22">
-        <v>1.489984408413505</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>6.017660665988956</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.259578071471651</v>
+        <v>12.83844493693107</v>
       </c>
       <c r="C23">
-        <v>5.007925937456037</v>
+        <v>4.122545460725405</v>
       </c>
       <c r="D23">
-        <v>0.42675296420731</v>
+        <v>0.4219544115680662</v>
       </c>
       <c r="E23">
-        <v>0.3768206241390999</v>
+        <v>3.157926490126627</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006398106166001227</v>
+        <v>0.0006464755625083696</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.26170176480287</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.881585930345238</v>
       </c>
       <c r="L23">
-        <v>1.406196024724508</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>5.782949711092328</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.501951118090005</v>
+        <v>10.32986549576071</v>
       </c>
       <c r="C24">
-        <v>4.0090099350939</v>
+        <v>3.295722119330378</v>
       </c>
       <c r="D24">
-        <v>0.3428909020094579</v>
+        <v>0.3404368479079238</v>
       </c>
       <c r="E24">
-        <v>0.3008266886271116</v>
+        <v>2.479563922772343</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006784849365293333</v>
+        <v>0.0006830313926401388</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.91821148174989</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.117243354826584</v>
       </c>
       <c r="L24">
-        <v>1.124273722133637</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>4.980829657180891</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.928497787665719</v>
+        <v>8.006007819097817</v>
       </c>
       <c r="C25">
-        <v>3.090525899661998</v>
+        <v>2.536947602583609</v>
       </c>
       <c r="D25">
-        <v>0.2652595697247619</v>
+        <v>0.264270371224427</v>
       </c>
       <c r="E25">
-        <v>0.2312335560259982</v>
+        <v>1.878701610548006</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007168110307278861</v>
+        <v>0.0007193481164945325</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.78981632012804</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.411042071766587</v>
       </c>
       <c r="L25">
-        <v>0.8655330895076219</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4.229437125348795</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.478746421206949</v>
+        <v>10.2439070337839</v>
       </c>
       <c r="C2">
-        <v>2.041430882348607</v>
+        <v>3.568034178378582</v>
       </c>
       <c r="D2">
-        <v>0.2139035871238804</v>
+        <v>0.2257269863392821</v>
       </c>
       <c r="E2">
-        <v>1.495556042911929</v>
+        <v>1.589123773785559</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000745026753675988</v>
+        <v>0.0007076306685456948</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.947737681354752</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.732212023463575</v>
+        <v>3.654868487983066</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.515364398605755</v>
+        <v>8.632016333591196</v>
       </c>
       <c r="C3">
-        <v>1.729946498582137</v>
+        <v>2.994978764378914</v>
       </c>
       <c r="D3">
-        <v>0.1820091890683528</v>
+        <v>0.1903423765336782</v>
       </c>
       <c r="E3">
-        <v>1.25792477043872</v>
+        <v>1.322748012390576</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007622441513950307</v>
+        <v>0.00072984583850154</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.655769034228129</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.417596518929798</v>
+        <v>3.312290749129403</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.949313943735206</v>
+        <v>7.699937582559812</v>
       </c>
       <c r="C4">
-        <v>1.547260432383212</v>
+        <v>2.664335755440845</v>
       </c>
       <c r="D4">
-        <v>0.1632234325314812</v>
+        <v>0.1698383709032356</v>
       </c>
       <c r="E4">
-        <v>1.119588891889649</v>
+        <v>1.17062173378406</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007728334487563355</v>
+        <v>0.0007433181312892501</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.484303162456882</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.232527047079031</v>
+        <v>3.113798719697456</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.723873940266913</v>
+        <v>7.331515368230441</v>
       </c>
       <c r="C5">
-        <v>1.474561822668875</v>
+        <v>2.533772668664483</v>
       </c>
       <c r="D5">
-        <v>0.1557319080527577</v>
+        <v>0.1617253115066859</v>
       </c>
       <c r="E5">
-        <v>1.064736663600911</v>
+        <v>1.110844242561427</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007771660936573753</v>
+        <v>0.0007487936645767843</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.416028846680902</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.158797923567107</v>
+        <v>3.035293162397352</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.686725327039369</v>
+        <v>7.270951710980512</v>
       </c>
       <c r="C6">
-        <v>1.462585330115246</v>
+        <v>2.512316404613273</v>
       </c>
       <c r="D6">
-        <v>0.1544968886836244</v>
+        <v>0.1603911778655345</v>
       </c>
       <c r="E6">
-        <v>1.055710573191362</v>
+        <v>1.10103594487444</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007778869130843358</v>
+        <v>0.0007497026803036591</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.404779173732251</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.14664813150884</v>
+        <v>3.022386296295792</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.946253802182639</v>
+        <v>7.694926261883268</v>
       </c>
       <c r="C7">
-        <v>1.546273401113297</v>
+        <v>2.662559350883441</v>
       </c>
       <c r="D7">
-        <v>0.1631217797099538</v>
+        <v>0.1697280481383387</v>
       </c>
       <c r="E7">
-        <v>1.118843428720936</v>
+        <v>1.169807330721611</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007728917943933884</v>
+        <v>0.0007433920030784861</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.483376346897558</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.231526293143702</v>
+        <v>3.112731013736578</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.140505526937488</v>
+        <v>9.674045506592392</v>
       </c>
       <c r="C8">
-        <v>1.9319822520294</v>
+        <v>3.365243321576997</v>
       </c>
       <c r="D8">
-        <v>0.2027165226268721</v>
+        <v>0.2132281817124522</v>
       </c>
       <c r="E8">
-        <v>1.411792398587977</v>
+        <v>1.494446885515643</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007509682430384742</v>
+        <v>0.000715344368810831</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.845205811799431</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.621818403514339</v>
+        <v>3.533877671012192</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.753019125035621</v>
+        <v>14.21289754230202</v>
       </c>
       <c r="C9">
-        <v>2.780182185138131</v>
+        <v>4.987307140670396</v>
       </c>
       <c r="D9">
-        <v>0.2888177572788067</v>
+        <v>0.3124183360348525</v>
       </c>
       <c r="E9">
-        <v>2.069322567126022</v>
+        <v>2.266111547684176</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007073600551150694</v>
+        <v>0.0006572038193582505</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.637877448015018</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.471735984957007</v>
+        <v>4.492294616222438</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.97108663429151</v>
+        <v>18.42379998142258</v>
       </c>
       <c r="C10">
-        <v>3.506247192763283</v>
+        <v>6.508889876152011</v>
       </c>
       <c r="D10">
-        <v>0.3613472957247552</v>
+        <v>0.4035718226690221</v>
       </c>
       <c r="E10">
-        <v>2.649740965540005</v>
+        <v>3.026068609868091</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006734621531567063</v>
+        <v>0.0006082632373782098</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.3124051922875</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.186828026625221</v>
+        <v>5.367259080227996</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.09361389833032</v>
+        <v>20.77193814241434</v>
       </c>
       <c r="C11">
-        <v>3.876126265183586</v>
+        <v>7.36597273823827</v>
       </c>
       <c r="D11">
-        <v>0.3978336976816195</v>
+        <v>0.4539324771926516</v>
       </c>
       <c r="E11">
-        <v>2.952846630506741</v>
+        <v>3.474109995596294</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006570942759530991</v>
+        <v>0.0005824261519137238</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.65440267177776</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.545880727871861</v>
+        <v>5.84758388318113</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.54164941431827</v>
+        <v>21.77266881001901</v>
       </c>
       <c r="C12">
-        <v>4.02425541507688</v>
+        <v>7.733393247920617</v>
       </c>
       <c r="D12">
-        <v>0.4123518032280202</v>
+        <v>0.4752706556513004</v>
       </c>
       <c r="E12">
-        <v>3.075808898006272</v>
+        <v>3.671522666211374</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006506852082155383</v>
+        <v>0.0005716713351627316</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.791033861691943</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.688600264339755</v>
+        <v>6.050413278361191</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.44399274292948</v>
+        <v>21.55074117861398</v>
       </c>
       <c r="C13">
-        <v>3.991943132952883</v>
+        <v>7.651794494618571</v>
       </c>
       <c r="D13">
-        <v>0.4091896009815486</v>
+        <v>0.470545597219882</v>
       </c>
       <c r="E13">
-        <v>3.048906035572159</v>
+        <v>3.627378579822931</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006520765137575339</v>
+        <v>0.0005740441913844967</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.761246348695408</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.65752186833754</v>
+        <v>6.005534328261604</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.12996377684237</v>
+        <v>20.85154636274967</v>
       </c>
       <c r="C14">
-        <v>3.888133332164045</v>
+        <v>7.395151881303946</v>
       </c>
       <c r="D14">
-        <v>0.3990125550618018</v>
+        <v>0.4556328472528151</v>
       </c>
       <c r="E14">
-        <v>2.962778959670516</v>
+        <v>3.489662639917114</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006565717916270341</v>
+        <v>0.0005815653400473435</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.665484964891505</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.557472686187566</v>
+        <v>5.863761627045449</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.94085529991958</v>
+        <v>20.44017374677298</v>
       </c>
       <c r="C15">
-        <v>3.825687898171736</v>
+        <v>7.244458950106832</v>
       </c>
       <c r="D15">
-        <v>0.3928777455746371</v>
+        <v>0.4468410260798521</v>
       </c>
       <c r="E15">
-        <v>2.911189385621412</v>
+        <v>3.409566037996399</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006592949505471215</v>
+        <v>0.0005860236903791128</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.607835253084787</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.49714155969167</v>
+        <v>5.780086005568023</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.9005089993891</v>
+        <v>18.28223714453952</v>
       </c>
       <c r="C16">
-        <v>3.483048889294423</v>
+        <v>6.457430266247229</v>
       </c>
       <c r="D16">
-        <v>0.359048103645037</v>
+        <v>0.4005238362887695</v>
       </c>
       <c r="E16">
-        <v>2.630908419020841</v>
+        <v>2.999673116148983</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006745071761355963</v>
+        <v>0.0006098504090139567</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.290917379962551</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.164185223542177</v>
+        <v>5.338115308036265</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.29518814952701</v>
+        <v>17.09180995101258</v>
       </c>
       <c r="C17">
-        <v>3.28435198521845</v>
+        <v>6.025586253573692</v>
       </c>
       <c r="D17">
-        <v>0.3393046454219331</v>
+        <v>0.374844334941173</v>
       </c>
       <c r="E17">
-        <v>2.470418702678941</v>
+        <v>2.780213522177874</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006835538329809142</v>
+        <v>0.0006233438357192228</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.106692886037067</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.969671537030024</v>
+        <v>5.092253371881327</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.957184097831032</v>
+        <v>16.44366437646204</v>
       </c>
       <c r="C18">
-        <v>3.173605126939663</v>
+        <v>5.791106857146474</v>
       </c>
       <c r="D18">
-        <v>0.3282617634808105</v>
+        <v>0.3608281250183865</v>
       </c>
       <c r="E18">
-        <v>2.381580902229999</v>
+        <v>2.662513298389314</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006886739566081631</v>
+        <v>0.000630807082593224</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.003876789656815</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4.860819797000829</v>
+        <v>4.957819864012549</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.844331450164532</v>
+        <v>16.22963111221509</v>
       </c>
       <c r="C19">
-        <v>3.136660593205136</v>
+        <v>5.713772215590097</v>
       </c>
       <c r="D19">
-        <v>0.3245718987594444</v>
+        <v>0.3561945398603825</v>
       </c>
       <c r="E19">
-        <v>2.352039777511081</v>
+        <v>2.623908374813709</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006903949800724399</v>
+        <v>0.0006332907744892648</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.969556786832953</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.824439718383758</v>
+        <v>4.913341750342227</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.35853557668474</v>
+        <v>17.21452953385744</v>
       </c>
       <c r="C20">
-        <v>3.305123721847792</v>
+        <v>6.070032633104347</v>
       </c>
       <c r="D20">
-        <v>0.3413728111664511</v>
+        <v>0.3774954819662071</v>
       </c>
       <c r="E20">
-        <v>2.487129293299859</v>
+        <v>2.802636830433073</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006825998500231407</v>
+        <v>0.0006219402838726981</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.125966431768333</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.99005347453658</v>
+        <v>5.117662570447749</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.22150880035315</v>
+        <v>21.05321201161598</v>
       </c>
       <c r="C21">
-        <v>3.918380886442719</v>
+        <v>7.469106785181225</v>
       </c>
       <c r="D21">
-        <v>0.4019806781105046</v>
+        <v>0.4599380614178301</v>
       </c>
       <c r="E21">
-        <v>2.98782685186265</v>
+        <v>3.529175739030265</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006552579323390739</v>
+        <v>0.0005793888557240341</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.693397260629126</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.586656344255346</v>
+        <v>5.904710901335534</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.57895852908825</v>
+        <v>24.30145371047979</v>
       </c>
       <c r="C22">
-        <v>4.368371245069625</v>
+        <v>8.668256615691007</v>
       </c>
       <c r="D22">
-        <v>0.4458599396644018</v>
+        <v>0.5287961694020851</v>
       </c>
       <c r="E22">
-        <v>3.365235219218903</v>
+        <v>4.190933030866034</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006360901211013597</v>
+        <v>0.0005450827768991258</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.107668711519409</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.017660665988956</v>
+        <v>6.557467625341076</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.83844493693107</v>
+        <v>22.46185774481785</v>
       </c>
       <c r="C23">
-        <v>4.122545460725405</v>
+        <v>7.987236771447556</v>
       </c>
       <c r="D23">
-        <v>0.4219544115680662</v>
+        <v>0.4899173631881268</v>
       </c>
       <c r="E23">
-        <v>3.157926490126627</v>
+        <v>3.810005638319055</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006464755625083696</v>
+        <v>0.0005643449538150769</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.881585930345238</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.782949711092328</v>
+        <v>6.18940421428141</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.32986549576071</v>
+        <v>17.15893789177005</v>
       </c>
       <c r="C24">
-        <v>3.295722119330378</v>
+        <v>6.049896537632435</v>
       </c>
       <c r="D24">
-        <v>0.3404368479079238</v>
+        <v>0.3762946268878693</v>
       </c>
       <c r="E24">
-        <v>2.479563922772343</v>
+        <v>2.792473587420801</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006830313926401388</v>
+        <v>0.0006225757207229954</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.117243354826584</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.980829657180891</v>
+        <v>5.106154046198469</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.006007819097817</v>
+        <v>12.87926949215057</v>
       </c>
       <c r="C25">
-        <v>2.536947602583609</v>
+        <v>4.508974175061155</v>
       </c>
       <c r="D25">
-        <v>0.264270371224427</v>
+        <v>0.2833633657891426</v>
       </c>
       <c r="E25">
-        <v>1.878701610548006</v>
+        <v>2.034934921028992</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007193481164945325</v>
+        <v>0.0006735874674390345</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.411042071766587</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.229437125348795</v>
+        <v>4.212081276363676</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.2439070337839</v>
+        <v>3.607991271660467</v>
       </c>
       <c r="C2">
-        <v>3.568034178378582</v>
+        <v>1.09648962797047</v>
       </c>
       <c r="D2">
-        <v>0.2257269863392821</v>
+        <v>0.07794152141862298</v>
       </c>
       <c r="E2">
-        <v>1.589123773785559</v>
+        <v>0.4058520619764607</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007076306685456948</v>
+        <v>0.002483511391034103</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.654868487983066</v>
+        <v>2.622068973487472</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.632016333591196</v>
+        <v>3.283876603269334</v>
       </c>
       <c r="C3">
-        <v>2.994978764378914</v>
+        <v>0.9801505167470168</v>
       </c>
       <c r="D3">
-        <v>0.1903423765336782</v>
+        <v>0.07070513608638862</v>
       </c>
       <c r="E3">
-        <v>1.322748012390576</v>
+        <v>0.3531709394833342</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00072984583850154</v>
+        <v>0.002494053275355787</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.312290749129403</v>
+        <v>2.529050544663647</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.699937582559812</v>
+        <v>3.087689595922882</v>
       </c>
       <c r="C4">
-        <v>2.664335755440845</v>
+        <v>0.9095208016346419</v>
       </c>
       <c r="D4">
-        <v>0.1698383709032356</v>
+        <v>0.06632147501564134</v>
       </c>
       <c r="E4">
-        <v>1.17062173378406</v>
+        <v>0.3210618987568523</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007433181312892501</v>
+        <v>0.002500829857046504</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.113798719697456</v>
+        <v>2.472358693095117</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.331515368230441</v>
+        <v>3.008422821027807</v>
       </c>
       <c r="C5">
-        <v>2.533772668664483</v>
+        <v>0.8809298984854763</v>
       </c>
       <c r="D5">
-        <v>0.1617253115066859</v>
+        <v>0.06454944845705768</v>
       </c>
       <c r="E5">
-        <v>1.110844242561427</v>
+        <v>0.308031061923657</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007487936645767843</v>
+        <v>0.002503668223982367</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.035293162397352</v>
+        <v>2.449355476142642</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.270951710980512</v>
+        <v>2.995300953634569</v>
       </c>
       <c r="C6">
-        <v>2.512316404613273</v>
+        <v>0.8761936480175905</v>
       </c>
       <c r="D6">
-        <v>0.1603911778655345</v>
+        <v>0.06425605394566958</v>
       </c>
       <c r="E6">
-        <v>1.10103594487444</v>
+        <v>0.305870386617741</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007497026803036591</v>
+        <v>0.002504144187872324</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.022386296295792</v>
+        <v>2.445541599921569</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.694926261883268</v>
+        <v>3.086617855846441</v>
       </c>
       <c r="C7">
-        <v>2.662559350883441</v>
+        <v>0.9091344540868249</v>
       </c>
       <c r="D7">
-        <v>0.1697280481383387</v>
+        <v>0.06629751953786922</v>
       </c>
       <c r="E7">
-        <v>1.169807330721611</v>
+        <v>0.3208859498670762</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007433920030784861</v>
+        <v>0.002500867824367341</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.112731013736578</v>
+        <v>2.472048071152273</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.674045506592392</v>
+        <v>3.495633757773817</v>
       </c>
       <c r="C8">
-        <v>3.365243321576997</v>
+        <v>1.056202728160429</v>
       </c>
       <c r="D8">
-        <v>0.2132281817124522</v>
+        <v>0.07543368867750644</v>
       </c>
       <c r="E8">
-        <v>1.494446885515643</v>
+        <v>0.3876347712616734</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000715344368810831</v>
+        <v>0.002487083451478061</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.533877671012192</v>
+        <v>2.589904448452586</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.21289754230202</v>
+        <v>4.321441842643708</v>
       </c>
       <c r="C9">
-        <v>4.987307140670396</v>
+        <v>1.351479903768166</v>
       </c>
       <c r="D9">
-        <v>0.3124183360348525</v>
+        <v>0.09385111391667067</v>
       </c>
       <c r="E9">
-        <v>2.266111547684176</v>
+        <v>0.5206879776510505</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0006572038193582505</v>
+        <v>0.002462441957714907</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.492294616222438</v>
+        <v>2.824694521077987</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.42379998142258</v>
+        <v>4.944605965607593</v>
       </c>
       <c r="C10">
-        <v>6.508889876152011</v>
+        <v>1.573351480338943</v>
       </c>
       <c r="D10">
-        <v>0.4035718226690221</v>
+        <v>0.1077309888957814</v>
       </c>
       <c r="E10">
-        <v>3.026068609868091</v>
+        <v>0.6201586605249929</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006082632373782098</v>
+        <v>0.002445764728262779</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.367259080227996</v>
+        <v>2.999910861485063</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.77193814241434</v>
+        <v>5.232120058627743</v>
       </c>
       <c r="C11">
-        <v>7.36597273823827</v>
+        <v>1.675525565567227</v>
       </c>
       <c r="D11">
-        <v>0.4539324771926516</v>
+        <v>0.1141307638638693</v>
       </c>
       <c r="E11">
-        <v>3.474109995596294</v>
+        <v>0.6658742039239627</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0005824261519137238</v>
+        <v>0.002438481088303795</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.84758388318113</v>
+        <v>3.080318195923383</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.77266881001901</v>
+        <v>5.341611437104234</v>
       </c>
       <c r="C12">
-        <v>7.733393247920617</v>
+        <v>1.714409006407095</v>
       </c>
       <c r="D12">
-        <v>0.4752706556513004</v>
+        <v>0.1165673297405618</v>
       </c>
       <c r="E12">
-        <v>3.671522666211374</v>
+        <v>0.6832600969204918</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0005716713351627316</v>
+        <v>0.002435765994697693</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.050413278361191</v>
+        <v>3.11087581487601</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.55074117861398</v>
+        <v>5.318002523836185</v>
       </c>
       <c r="C13">
-        <v>7.651794494618571</v>
+        <v>1.706025987262137</v>
       </c>
       <c r="D13">
-        <v>0.470545597219882</v>
+        <v>0.1160419758960813</v>
       </c>
       <c r="E13">
-        <v>3.627378579822931</v>
+        <v>0.6795123032104726</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0005740441913844967</v>
+        <v>0.00243634883151349</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.005534328261604</v>
+        <v>3.104289696420665</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.85154636274967</v>
+        <v>5.24111542300011</v>
       </c>
       <c r="C14">
-        <v>7.395151881303946</v>
+        <v>1.678720595848631</v>
       </c>
       <c r="D14">
-        <v>0.4556328472528151</v>
+        <v>0.1143309542926119</v>
       </c>
       <c r="E14">
-        <v>3.489662639917114</v>
+        <v>0.6673030169911414</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0005815653400473435</v>
+        <v>0.002438256855917479</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.863761627045449</v>
+        <v>3.082829954159308</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.44017374677298</v>
+        <v>5.194101170653539</v>
       </c>
       <c r="C15">
-        <v>7.244458950106832</v>
+        <v>1.662020711927994</v>
       </c>
       <c r="D15">
-        <v>0.4468410260798521</v>
+        <v>0.1132846350843266</v>
       </c>
       <c r="E15">
-        <v>3.409566037996399</v>
+        <v>0.6598343920336731</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0005860236903791128</v>
+        <v>0.002439431168881801</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.780086005568023</v>
+        <v>3.069699703873425</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.28223714453952</v>
+        <v>4.92590045725683</v>
       </c>
       <c r="C16">
-        <v>6.457430266247229</v>
+        <v>1.566700330973845</v>
       </c>
       <c r="D16">
-        <v>0.4005238362887695</v>
+        <v>0.107314540023566</v>
       </c>
       <c r="E16">
-        <v>2.999673116148983</v>
+        <v>0.6171810441194765</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006098504090139567</v>
+        <v>0.002446246784535164</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.338115308036265</v>
+        <v>2.994670859619561</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.09180995101258</v>
+        <v>4.762426308702743</v>
       </c>
       <c r="C17">
-        <v>6.025586253573692</v>
+        <v>1.508552331651572</v>
       </c>
       <c r="D17">
-        <v>0.374844334941173</v>
+        <v>0.1036745882182402</v>
       </c>
       <c r="E17">
-        <v>2.780213522177874</v>
+        <v>0.5911391009289986</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006233438357192228</v>
+        <v>0.002450505177481154</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.092253371881327</v>
+        <v>2.948828397422801</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44366437646204</v>
+        <v>4.668777731438581</v>
       </c>
       <c r="C18">
-        <v>5.791106857146474</v>
+        <v>1.475223355774915</v>
       </c>
       <c r="D18">
-        <v>0.3608281250183865</v>
+        <v>0.1015890071188039</v>
       </c>
       <c r="E18">
-        <v>2.662513298389314</v>
+        <v>0.5762038495583113</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000630807082593224</v>
+        <v>0.002452983034488977</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4.957819864012549</v>
+        <v>2.922526448895354</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.22963111221509</v>
+        <v>4.637133680761281</v>
       </c>
       <c r="C19">
-        <v>5.713772215590097</v>
+        <v>1.463958293886776</v>
       </c>
       <c r="D19">
-        <v>0.3561945398603825</v>
+        <v>0.1008842198563116</v>
       </c>
       <c r="E19">
-        <v>2.623908374813709</v>
+        <v>0.5711542599483437</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006332907744892648</v>
+        <v>0.00245382691151039</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.913341750342227</v>
+        <v>2.913632046536179</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.21452953385744</v>
+        <v>4.779789091841963</v>
       </c>
       <c r="C20">
-        <v>6.070032633104347</v>
+        <v>1.514730161349689</v>
       </c>
       <c r="D20">
-        <v>0.3774954819662071</v>
+        <v>0.104061231408096</v>
       </c>
       <c r="E20">
-        <v>2.802636830433073</v>
+        <v>0.5939067671176588</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006219402838726981</v>
+        <v>0.002450048913805592</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.117662570447749</v>
+        <v>2.953701574882871</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.05321201161598</v>
+        <v>5.26368201577111</v>
       </c>
       <c r="C21">
-        <v>7.469106785181225</v>
+        <v>1.686735521255514</v>
       </c>
       <c r="D21">
-        <v>0.4599380614178301</v>
+        <v>0.114833160660794</v>
       </c>
       <c r="E21">
-        <v>3.529175739030265</v>
+        <v>0.6708871003298356</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0005793888557240341</v>
+        <v>0.002437695257922277</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.904710901335534</v>
+        <v>3.08913017159108</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.30145371047979</v>
+        <v>5.583542398614554</v>
       </c>
       <c r="C22">
-        <v>8.668256615691007</v>
+        <v>1.800278657171361</v>
       </c>
       <c r="D22">
-        <v>0.5287961694020851</v>
+        <v>0.1219500366514694</v>
       </c>
       <c r="E22">
-        <v>4.190933030866034</v>
+        <v>0.7216355596672486</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0005450827768991258</v>
+        <v>0.002429872195777015</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.557467625341076</v>
+        <v>3.178280608481998</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.46185774481785</v>
+        <v>5.412484475794486</v>
       </c>
       <c r="C23">
-        <v>7.987236771447556</v>
+        <v>1.739570770950081</v>
       </c>
       <c r="D23">
-        <v>0.4899173631881268</v>
+        <v>0.1181443339891359</v>
       </c>
       <c r="E23">
-        <v>3.810005638319055</v>
+        <v>0.694507606306189</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0005643449538150769</v>
+        <v>0.002434024732548656</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.18940421428141</v>
+        <v>3.130637950011078</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.15893789177005</v>
+        <v>4.771938337189681</v>
       </c>
       <c r="C24">
-        <v>6.049896537632435</v>
+        <v>1.511936850706888</v>
       </c>
       <c r="D24">
-        <v>0.3762946268878693</v>
+        <v>0.1038864080413759</v>
       </c>
       <c r="E24">
-        <v>2.792473587420801</v>
+        <v>0.5926553917642821</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006225757207229954</v>
+        <v>0.002450255098090781</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.106154046198469</v>
+        <v>2.951498245362615</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.87926949215057</v>
+        <v>4.09529824119727</v>
       </c>
       <c r="C25">
-        <v>4.508974175061155</v>
+        <v>1.270788513246032</v>
       </c>
       <c r="D25">
-        <v>0.2833633657891426</v>
+        <v>0.08881068369353784</v>
       </c>
       <c r="E25">
-        <v>2.034934921028992</v>
+        <v>0.4844218904496103</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0006735874674390345</v>
+        <v>0.002468855374965174</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.212081276363676</v>
+        <v>2.760735756104452</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.607991271660467</v>
+        <v>10.2439070337839</v>
       </c>
       <c r="C2">
-        <v>1.09648962797047</v>
+        <v>3.568034178378355</v>
       </c>
       <c r="D2">
-        <v>0.07794152141862298</v>
+        <v>0.2257269863396942</v>
       </c>
       <c r="E2">
-        <v>0.4058520619764607</v>
+        <v>1.589123773785488</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002483511391034103</v>
+        <v>0.0007076306686471522</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.622068973487472</v>
+        <v>3.654868487983038</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.283876603269334</v>
+        <v>8.632016333591082</v>
       </c>
       <c r="C3">
-        <v>0.9801505167470168</v>
+        <v>2.994978764379653</v>
       </c>
       <c r="D3">
-        <v>0.07070513608638862</v>
+        <v>0.1903423765341188</v>
       </c>
       <c r="E3">
-        <v>0.3531709394833342</v>
+        <v>1.322748012390576</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002494053275355787</v>
+        <v>0.0007298458383945399</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.529050544663647</v>
+        <v>3.312290749129403</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.087689595922882</v>
+        <v>7.699937582559755</v>
       </c>
       <c r="C4">
-        <v>0.9095208016346419</v>
+        <v>2.664335755441357</v>
       </c>
       <c r="D4">
-        <v>0.06632147501564134</v>
+        <v>0.1698383709034914</v>
       </c>
       <c r="E4">
-        <v>0.3210618987568523</v>
+        <v>1.170621733784003</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002500829857046504</v>
+        <v>0.0007433181311942058</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.472358693095117</v>
+        <v>3.113798719697485</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.008422821027807</v>
+        <v>7.331515368230384</v>
       </c>
       <c r="C5">
-        <v>0.8809298984854763</v>
+        <v>2.533772668664199</v>
       </c>
       <c r="D5">
-        <v>0.06454944845705768</v>
+        <v>0.1617253115065438</v>
       </c>
       <c r="E5">
-        <v>0.308031061923657</v>
+        <v>1.110844242561313</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002503668223982367</v>
+        <v>0.0007487936645807811</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.449355476142642</v>
+        <v>3.035293162397323</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.995300953634569</v>
+        <v>7.27095171098</v>
       </c>
       <c r="C6">
-        <v>0.8761936480175905</v>
+        <v>2.512316404612704</v>
       </c>
       <c r="D6">
-        <v>0.06425605394566958</v>
+        <v>0.1603911778657903</v>
       </c>
       <c r="E6">
-        <v>0.305870386617741</v>
+        <v>1.101035944874411</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002504144187872324</v>
+        <v>0.0007497026802501047</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.445541599921569</v>
+        <v>3.022386296295792</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.086617855846441</v>
+        <v>7.694926261883268</v>
       </c>
       <c r="C7">
-        <v>0.9091344540868249</v>
+        <v>2.662559350883441</v>
       </c>
       <c r="D7">
-        <v>0.06629751953786922</v>
+        <v>0.1697280481383103</v>
       </c>
       <c r="E7">
-        <v>0.3208859498670762</v>
+        <v>1.169807330721639</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002500867824367341</v>
+        <v>0.0007433920032238091</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.472048071152273</v>
+        <v>3.11273101373655</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.495633757773817</v>
+        <v>9.674045506592392</v>
       </c>
       <c r="C8">
-        <v>1.056202728160429</v>
+        <v>3.365243321576997</v>
       </c>
       <c r="D8">
-        <v>0.07543368867750644</v>
+        <v>0.2132281817126653</v>
       </c>
       <c r="E8">
-        <v>0.3876347712616734</v>
+        <v>1.494446885515572</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002487083451478061</v>
+        <v>0.0007153443686003357</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.589904448452586</v>
+        <v>3.533877671012192</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.321441842643708</v>
+        <v>14.21289754230202</v>
       </c>
       <c r="C9">
-        <v>1.351479903768166</v>
+        <v>4.987307140670737</v>
       </c>
       <c r="D9">
-        <v>0.09385111391667067</v>
+        <v>0.3124183360346393</v>
       </c>
       <c r="E9">
-        <v>0.5206879776510505</v>
+        <v>2.266111547684176</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002462441957714907</v>
+        <v>0.0006572038194767401</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.824694521077987</v>
+        <v>4.492294616222466</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.944605965607593</v>
+        <v>18.42379998142235</v>
       </c>
       <c r="C10">
-        <v>1.573351480338943</v>
+        <v>6.508889876152466</v>
       </c>
       <c r="D10">
-        <v>0.1077309888957814</v>
+        <v>0.4035718226690079</v>
       </c>
       <c r="E10">
-        <v>0.6201586605249929</v>
+        <v>3.026068609868133</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002445764728262779</v>
+        <v>0.0006082632373793609</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.999910861485063</v>
+        <v>5.367259080227996</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.232120058627743</v>
+        <v>20.77193814241434</v>
       </c>
       <c r="C11">
-        <v>1.675525565567227</v>
+        <v>7.365972738238383</v>
       </c>
       <c r="D11">
-        <v>0.1141307638638693</v>
+        <v>0.45393247719268</v>
       </c>
       <c r="E11">
-        <v>0.6658742039239627</v>
+        <v>3.474109995596223</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002438481088303795</v>
+        <v>0.0005824261520124425</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.080318195923383</v>
+        <v>5.84758388318113</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.341611437104234</v>
+        <v>21.77266881001935</v>
       </c>
       <c r="C12">
-        <v>1.714409006407095</v>
+        <v>7.733393247921185</v>
       </c>
       <c r="D12">
-        <v>0.1165673297405618</v>
+        <v>0.4752706556512436</v>
       </c>
       <c r="E12">
-        <v>0.6832600969204918</v>
+        <v>3.671522666211317</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002435765994697693</v>
+        <v>0.0005716713351557039</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.11087581487601</v>
+        <v>6.050413278361248</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.318002523836185</v>
+        <v>21.55074117861352</v>
       </c>
       <c r="C13">
-        <v>1.706025987262137</v>
+        <v>7.651794494617548</v>
       </c>
       <c r="D13">
-        <v>0.1160419758960813</v>
+        <v>0.4705455972201946</v>
       </c>
       <c r="E13">
-        <v>0.6795123032104726</v>
+        <v>3.627378579822789</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00243634883151349</v>
+        <v>0.0005740441911695297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.104289696420665</v>
+        <v>6.00553432826149</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.24111542300011</v>
+        <v>20.85154636274956</v>
       </c>
       <c r="C14">
-        <v>1.678720595848631</v>
+        <v>7.395151881303605</v>
       </c>
       <c r="D14">
-        <v>0.1143309542926119</v>
+        <v>0.4556328472529003</v>
       </c>
       <c r="E14">
-        <v>0.6673030169911414</v>
+        <v>3.489662639917114</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002438256855917479</v>
+        <v>0.0005815653401802512</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.082829954159308</v>
+        <v>5.863761627045506</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.194101170653539</v>
+        <v>20.44017374677321</v>
       </c>
       <c r="C15">
-        <v>1.662020711927994</v>
+        <v>7.244458950106377</v>
       </c>
       <c r="D15">
-        <v>0.1132846350843266</v>
+        <v>0.4468410260794826</v>
       </c>
       <c r="E15">
-        <v>0.6598343920336731</v>
+        <v>3.40956603799637</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002439431168881801</v>
+        <v>0.0005860236902694597</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.069699703873425</v>
+        <v>5.78008600556808</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.92590045725683</v>
+        <v>18.28223714453964</v>
       </c>
       <c r="C16">
-        <v>1.566700330973845</v>
+        <v>6.45743026624757</v>
       </c>
       <c r="D16">
-        <v>0.107314540023566</v>
+        <v>0.4005238362892385</v>
       </c>
       <c r="E16">
-        <v>0.6171810441194765</v>
+        <v>2.999673116148969</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002446246784535164</v>
+        <v>0.000609850408894761</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.994670859619561</v>
+        <v>5.338115308036208</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.762426308702743</v>
+        <v>17.09180995101258</v>
       </c>
       <c r="C17">
-        <v>1.508552331651572</v>
+        <v>6.025586253574033</v>
       </c>
       <c r="D17">
-        <v>0.1036745882182402</v>
+        <v>0.3748443349410451</v>
       </c>
       <c r="E17">
-        <v>0.5911391009289986</v>
+        <v>2.780213522177888</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002450505177481154</v>
+        <v>0.0006233438358267123</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.948828397422801</v>
+        <v>5.092253371881327</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.668777731438581</v>
+        <v>16.44366437646204</v>
       </c>
       <c r="C18">
-        <v>1.475223355774915</v>
+        <v>5.791106857146133</v>
       </c>
       <c r="D18">
-        <v>0.1015890071188039</v>
+        <v>0.3608281250181591</v>
       </c>
       <c r="E18">
-        <v>0.5762038495583113</v>
+        <v>2.662513298389243</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002452983034488977</v>
+        <v>0.0006308070826869209</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.922526448895354</v>
+        <v>4.957819864012549</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.637133680761281</v>
+        <v>16.22963111221497</v>
       </c>
       <c r="C19">
-        <v>1.463958293886776</v>
+        <v>5.713772215589643</v>
       </c>
       <c r="D19">
-        <v>0.1008842198563116</v>
+        <v>0.3561945398600557</v>
       </c>
       <c r="E19">
-        <v>0.5711542599483437</v>
+        <v>2.62390837481361</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00245382691151039</v>
+        <v>0.0006332907742753731</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.913632046536179</v>
+        <v>4.91334175034217</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.779789091841963</v>
+        <v>17.21452953385733</v>
       </c>
       <c r="C20">
-        <v>1.514730161349689</v>
+        <v>6.070032633103096</v>
       </c>
       <c r="D20">
-        <v>0.104061231408096</v>
+        <v>0.3774954819655534</v>
       </c>
       <c r="E20">
-        <v>0.5939067671176588</v>
+        <v>2.802636830433073</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002450048913805592</v>
+        <v>0.0006219402837451742</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.953701574882871</v>
+        <v>5.117662570447806</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.26368201577111</v>
+        <v>21.05321201161598</v>
       </c>
       <c r="C21">
-        <v>1.686735521255514</v>
+        <v>7.469106785181225</v>
       </c>
       <c r="D21">
-        <v>0.114833160660794</v>
+        <v>0.4599380614181285</v>
       </c>
       <c r="E21">
-        <v>0.6708871003298356</v>
+        <v>3.529175739030251</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002437695257922277</v>
+        <v>0.0005793888558614636</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.08913017159108</v>
+        <v>5.904710901335534</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.583542398614554</v>
+        <v>24.30145371048013</v>
       </c>
       <c r="C22">
-        <v>1.800278657171361</v>
+        <v>8.668256615691007</v>
       </c>
       <c r="D22">
-        <v>0.1219500366514694</v>
+        <v>0.5287961694020851</v>
       </c>
       <c r="E22">
-        <v>0.7216355596672486</v>
+        <v>4.190933030866105</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002429872195777015</v>
+        <v>0.0005450827768167545</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.178280608481998</v>
+        <v>6.557467625341189</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.412484475794486</v>
+        <v>22.46185774481785</v>
       </c>
       <c r="C23">
-        <v>1.739570770950081</v>
+        <v>7.98723677144767</v>
       </c>
       <c r="D23">
-        <v>0.1181443339891359</v>
+        <v>0.4899173631881837</v>
       </c>
       <c r="E23">
-        <v>0.694507606306189</v>
+        <v>3.810005638319041</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002434024732548656</v>
+        <v>0.0005643449536378713</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.130637950011078</v>
+        <v>6.189404214281296</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.771938337189681</v>
+        <v>17.15893789177005</v>
       </c>
       <c r="C24">
-        <v>1.511936850706888</v>
+        <v>6.049896537632435</v>
       </c>
       <c r="D24">
-        <v>0.1038864080413759</v>
+        <v>0.3762946268881535</v>
       </c>
       <c r="E24">
-        <v>0.5926553917642821</v>
+        <v>2.792473587420815</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002450255098090781</v>
+        <v>0.0006225757206964242</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.951498245362615</v>
+        <v>5.106154046198412</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.09529824119727</v>
+        <v>12.8792694921508</v>
       </c>
       <c r="C25">
-        <v>1.270788513246032</v>
+        <v>4.508974175061155</v>
       </c>
       <c r="D25">
-        <v>0.08881068369353784</v>
+        <v>0.2833633657893273</v>
       </c>
       <c r="E25">
-        <v>0.4844218904496103</v>
+        <v>2.034934921029048</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002468855374965174</v>
+        <v>0.0006735874673126912</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.760735756104452</v>
+        <v>4.212081276363733</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.2439070337839</v>
+        <v>1.190078601499721</v>
       </c>
       <c r="C2">
-        <v>3.568034178378355</v>
+        <v>0.3558902321734365</v>
       </c>
       <c r="D2">
-        <v>0.2257269863396942</v>
+        <v>0.1957803180499269</v>
       </c>
       <c r="E2">
-        <v>1.589123773785488</v>
+        <v>1.279238599613365</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007076306686471522</v>
+        <v>1.076871664282763</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003667158107889534</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004916651333686239</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6977214586911771</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6344783200136064</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.514244011514506</v>
       </c>
       <c r="N2">
-        <v>3.654868487983038</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1.048993809519288</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.632016333591082</v>
+        <v>1.034121743105317</v>
       </c>
       <c r="C3">
-        <v>2.994978764379653</v>
+        <v>0.3080645016881078</v>
       </c>
       <c r="D3">
-        <v>0.1903423765341188</v>
+        <v>0.1698386470059177</v>
       </c>
       <c r="E3">
-        <v>1.322748012390576</v>
+        <v>1.109586919466395</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007298458383945399</v>
+        <v>0.991451479343965</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00186091054204951</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0009685447242393508</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.66192023576005</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6028254751079842</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.314560844429337</v>
       </c>
       <c r="N3">
-        <v>3.312290749129403</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>1.068935978548843</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.699937582559755</v>
+        <v>0.9382063970137438</v>
       </c>
       <c r="C4">
-        <v>2.664335755441357</v>
+        <v>0.2791239251021409</v>
       </c>
       <c r="D4">
-        <v>0.1698383709034914</v>
+        <v>0.1540583080756193</v>
       </c>
       <c r="E4">
-        <v>1.170621733784003</v>
+        <v>1.005900679063956</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007433181311942058</v>
+        <v>0.939507237631787</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001029567217222027</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00157956810859794</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.64025827787043</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5835485481189195</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.192274734208411</v>
       </c>
       <c r="N4">
-        <v>3.113798719697485</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.081503030176812</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.331515368230384</v>
+        <v>0.8981192528897282</v>
       </c>
       <c r="C5">
-        <v>2.533772668664199</v>
+        <v>0.2678586778481815</v>
       </c>
       <c r="D5">
-        <v>0.1617253115065438</v>
+        <v>0.1476590558385737</v>
       </c>
       <c r="E5">
-        <v>1.110844242561313</v>
+        <v>0.9637287181568723</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007487936645807811</v>
+        <v>0.91726333499264</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0007549997765661232</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001977125323228801</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6309016265142873</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5749228764599863</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.142160094651132</v>
       </c>
       <c r="N5">
-        <v>3.035293162397323</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.085945219157786</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.27095171098</v>
+        <v>0.8902966309447606</v>
       </c>
       <c r="C6">
-        <v>2.512316404612704</v>
+        <v>0.2665243550341927</v>
       </c>
       <c r="D6">
-        <v>0.1603911778657903</v>
+        <v>0.1465967028744046</v>
       </c>
       <c r="E6">
-        <v>1.101035944874411</v>
+        <v>0.9567115246676678</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007497026802501047</v>
+        <v>0.912126315102924</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0007122724183852291</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002144447935419791</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6286162680944187</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.572510268433696</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.133424741640937</v>
       </c>
       <c r="N6">
-        <v>3.022386296295792</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.085766606118597</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.694926261883268</v>
+        <v>0.9344769492264788</v>
       </c>
       <c r="C7">
-        <v>2.662559350883441</v>
+        <v>0.2804245525956901</v>
       </c>
       <c r="D7">
-        <v>0.1697280481383103</v>
+        <v>0.1539672570251014</v>
       </c>
       <c r="E7">
-        <v>1.169807330721639</v>
+        <v>1.005275848457813</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007433920032238091</v>
+        <v>0.9352418729888399</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001022526989771677</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001831937824444907</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6381208477641707</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5807465797381965</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.19045459311107</v>
       </c>
       <c r="N7">
-        <v>3.11273101373655</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.079059121340471</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.674045506592392</v>
+        <v>1.132057020678815</v>
       </c>
       <c r="C8">
-        <v>3.365243321576997</v>
+        <v>0.3412436501418767</v>
       </c>
       <c r="D8">
-        <v>0.2132281817126653</v>
+        <v>0.1867948849660479</v>
       </c>
       <c r="E8">
-        <v>1.494446885515572</v>
+        <v>1.220546508866221</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007153443686003357</v>
+        <v>1.042035985794612</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002977085931074264</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0008761468271938355</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6826416644858142</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6199665974073767</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.443773412209566</v>
       </c>
       <c r="N8">
-        <v>3.533877671012192</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1.05254301261823</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.21289754230202</v>
+        <v>1.524615975735145</v>
       </c>
       <c r="C9">
-        <v>4.987307140670737</v>
+        <v>0.4618069654521548</v>
       </c>
       <c r="D9">
-        <v>0.3124183360346393</v>
+        <v>0.2525728254073414</v>
       </c>
       <c r="E9">
-        <v>2.266111547684176</v>
+        <v>1.647762361872807</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0006572038194767401</v>
+        <v>1.263444649723027</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.009254162241090907</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001392387621790725</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.776478475107325</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7032571154846039</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.946249701940729</v>
       </c>
       <c r="N9">
-        <v>4.492294616222466</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>1.007738591511732</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.42379998142235</v>
+        <v>1.802781626492958</v>
       </c>
       <c r="C10">
-        <v>6.508889876152466</v>
+        <v>0.5478732836069753</v>
       </c>
       <c r="D10">
-        <v>0.4035718226690079</v>
+        <v>0.3019838089228983</v>
       </c>
       <c r="E10">
-        <v>3.026068609868133</v>
+        <v>1.866313775426136</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006082632373793609</v>
+        <v>1.405716807355219</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01516873766565663</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003799973461620532</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.8356184574519432</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7536137132104912</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.302638676917496</v>
       </c>
       <c r="N10">
-        <v>5.367259080227996</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.9656068879523048</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.77193814241434</v>
+        <v>1.845303202977647</v>
       </c>
       <c r="C11">
-        <v>7.365972738238383</v>
+        <v>0.5346523475962215</v>
       </c>
       <c r="D11">
-        <v>0.45393247719268</v>
+        <v>0.3240003849994793</v>
       </c>
       <c r="E11">
-        <v>3.474109995596223</v>
+        <v>1.195002847898365</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0005824261520124425</v>
+        <v>1.273210139752933</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03142546397608825</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004845990333704364</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7650148454962959</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6805131444197769</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.324478528092925</v>
       </c>
       <c r="N11">
-        <v>5.84758388318113</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.8641281763267159</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.77266881001935</v>
+        <v>1.827153557701877</v>
       </c>
       <c r="C12">
-        <v>7.733393247921185</v>
+        <v>0.5038256298763315</v>
       </c>
       <c r="D12">
-        <v>0.4752706556512436</v>
+        <v>0.3320845333566638</v>
       </c>
       <c r="E12">
-        <v>3.671522666211317</v>
+        <v>0.7127294518060694</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0005716713351557039</v>
+        <v>1.142881970176006</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06800902347598736</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.00476937856048476</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6982575739507269</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6152454031360648</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.269251149267319</v>
       </c>
       <c r="N12">
-        <v>6.050413278361248</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.800898800626598</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.55074117861352</v>
+        <v>1.756412108914049</v>
       </c>
       <c r="C13">
-        <v>7.651794494617548</v>
+        <v>0.4602984437537714</v>
       </c>
       <c r="D13">
-        <v>0.4705455972201946</v>
+        <v>0.3297683273931113</v>
       </c>
       <c r="E13">
-        <v>3.627378579822789</v>
+        <v>0.3487297910656082</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0005740441911695297</v>
+        <v>1.000917293737189</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.121666720236675</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004161850320061333</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6275894759617131</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5481297243486907</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.150312567000299</v>
       </c>
       <c r="N13">
-        <v>6.00553432826149</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7588362927952907</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.85154636274956</v>
+        <v>1.682638633209194</v>
       </c>
       <c r="C14">
-        <v>7.395151881303605</v>
+        <v>0.4250030425172895</v>
       </c>
       <c r="D14">
-        <v>0.4556328472529003</v>
+        <v>0.3234597147716585</v>
       </c>
       <c r="E14">
-        <v>3.489662639917114</v>
+        <v>0.1659432452181449</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0005815653401802512</v>
+        <v>0.8969596414526819</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1696502771588797</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003633518444722483</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.576583771360248</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5004265117641751</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.038879222054419</v>
       </c>
       <c r="N14">
-        <v>5.863761627045506</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7397086483577091</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.44017374677321</v>
+        <v>1.65241070638524</v>
       </c>
       <c r="C15">
-        <v>7.244458950106377</v>
+        <v>0.4141793334047179</v>
       </c>
       <c r="D15">
-        <v>0.4468410260794826</v>
+        <v>0.3197089264163395</v>
       </c>
       <c r="E15">
-        <v>3.40956603799637</v>
+        <v>0.1303496395700172</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0005860236902694597</v>
+        <v>0.8674929467121473</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1817039320850711</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003513288590950125</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5625327634068213</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4873450427792676</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.997995623542096</v>
       </c>
       <c r="N15">
-        <v>5.78008600556808</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7378622348335924</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.28223714453964</v>
+        <v>1.547229492866165</v>
       </c>
       <c r="C16">
-        <v>6.45743026624757</v>
+        <v>0.3881695144426374</v>
       </c>
       <c r="D16">
-        <v>0.4005238362892385</v>
+        <v>0.2986743454048479</v>
       </c>
       <c r="E16">
-        <v>2.999673116148969</v>
+        <v>0.1265192426200699</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000609850408894761</v>
+        <v>0.8360665887245347</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1673065544627264</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002746894854858795</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5515512614422278</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4790354614231447</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.871699325673887</v>
       </c>
       <c r="N16">
-        <v>5.338115308036208</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.761939158139441</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.09180995101258</v>
+        <v>1.505395681176111</v>
       </c>
       <c r="C17">
-        <v>6.025586253574033</v>
+        <v>0.3867667481947876</v>
       </c>
       <c r="D17">
-        <v>0.3748443349410451</v>
+        <v>0.2859693214983281</v>
       </c>
       <c r="E17">
-        <v>2.780213522177888</v>
+        <v>0.2067752851113696</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006233438358267123</v>
+        <v>0.8660930201641008</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1289017455141845</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002468761814006903</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5697923140366896</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4974773223780886</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.833495365738003</v>
       </c>
       <c r="N17">
-        <v>5.092253371881327</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7900019670364351</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44366437646204</v>
+        <v>1.515803521889751</v>
       </c>
       <c r="C18">
-        <v>5.791106857146133</v>
+        <v>0.4057565928563065</v>
       </c>
       <c r="D18">
-        <v>0.3608281250181591</v>
+        <v>0.278886869658109</v>
       </c>
       <c r="E18">
-        <v>2.662513298389243</v>
+        <v>0.4309009211630297</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006308070826869209</v>
+        <v>0.9581013648199672</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07650938909129934</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002212987462341331</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6178975547371834</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5444214249132671</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.867754610860203</v>
       </c>
       <c r="N18">
-        <v>4.957819864012549</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8305069559187359</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.22963111221497</v>
+        <v>1.561933312274562</v>
       </c>
       <c r="C19">
-        <v>5.713772215589643</v>
+        <v>0.4435931561922644</v>
       </c>
       <c r="D19">
-        <v>0.3561945398600557</v>
+        <v>0.2768085160122098</v>
       </c>
       <c r="E19">
-        <v>2.62390837481361</v>
+        <v>0.8513044808852328</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006332907742753731</v>
+        <v>1.092671578259555</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03307083627790064</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002520552798499942</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6858129748545281</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6095923841797628</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.957111005810617</v>
       </c>
       <c r="N19">
-        <v>4.91334175034217</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8828032247147064</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.21452953385733</v>
+        <v>1.71901029478073</v>
       </c>
       <c r="C20">
-        <v>6.070032633103096</v>
+        <v>0.5294324293401758</v>
       </c>
       <c r="D20">
-        <v>0.3774954819655534</v>
+        <v>0.2888889569371855</v>
       </c>
       <c r="E20">
-        <v>2.802636830433073</v>
+        <v>1.804290832668912</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006219402837451742</v>
+        <v>1.354676186677807</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01342272099362507</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003721397442206786</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.8131948521118204</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7314704261730967</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.204358166725513</v>
       </c>
       <c r="N20">
-        <v>5.117662570447806</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.9688014556194915</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.05321201161598</v>
+        <v>1.948901337828687</v>
       </c>
       <c r="C21">
-        <v>7.469106785181225</v>
+        <v>0.6057668776414857</v>
       </c>
       <c r="D21">
-        <v>0.4599380614181285</v>
+        <v>0.3274122958691237</v>
       </c>
       <c r="E21">
-        <v>3.529175739030251</v>
+        <v>2.128523816647316</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0005793888558614636</v>
+        <v>1.503182734399388</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01944279110293401</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.006278510121221714</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8780876034665823</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.7893318606473088</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.505027592316083</v>
       </c>
       <c r="N21">
-        <v>5.904710901335534</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.9545546215841014</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.30145371048013</v>
+        <v>2.09929547746151</v>
       </c>
       <c r="C22">
-        <v>8.668256615691007</v>
+        <v>0.651283021034061</v>
       </c>
       <c r="D22">
-        <v>0.5287961694020851</v>
+        <v>0.352882999720677</v>
       </c>
       <c r="E22">
-        <v>4.190933030866105</v>
+        <v>2.291165105701495</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0005450827768167545</v>
+        <v>1.595199846069391</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02357590685523547</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.008118164425769514</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.9180884331281618</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.8255433701796662</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.696278103258237</v>
       </c>
       <c r="N22">
-        <v>6.557467625341189</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.9436388645303424</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.46185774481785</v>
+        <v>2.022930208151706</v>
       </c>
       <c r="C23">
-        <v>7.98723677144767</v>
+        <v>0.6251285998235403</v>
       </c>
       <c r="D23">
-        <v>0.4899173631881837</v>
+        <v>0.3392674882588551</v>
       </c>
       <c r="E23">
-        <v>3.810005638319041</v>
+        <v>2.204319110509701</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0005643449536378713</v>
+        <v>1.550708899439968</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0213408231843184</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.006830236609485674</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.8990583999402588</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8093587614486424</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.59552482825103</v>
       </c>
       <c r="N23">
-        <v>6.189404214281296</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.9521616869411602</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.15893789177005</v>
+        <v>1.728368426947355</v>
       </c>
       <c r="C24">
-        <v>6.049896537632435</v>
+        <v>0.530589070925032</v>
       </c>
       <c r="D24">
-        <v>0.3762946268881535</v>
+        <v>0.2883455768082399</v>
       </c>
       <c r="E24">
-        <v>2.792473587420815</v>
+        <v>1.87817006737572</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006225757206964242</v>
+        <v>1.377354721601165</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01375649857006944</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003310873380467427</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8245939872020358</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7439959112403756</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.214275733302912</v>
       </c>
       <c r="N24">
-        <v>5.106154046198412</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.9812633394637942</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.8792694921508</v>
+        <v>1.412484228092296</v>
       </c>
       <c r="C25">
-        <v>4.508974175061155</v>
+        <v>0.4313710679066105</v>
       </c>
       <c r="D25">
-        <v>0.2833633657893273</v>
+        <v>0.2345843517950641</v>
       </c>
       <c r="E25">
-        <v>2.034934921029048</v>
+        <v>1.531360756959202</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0006735874673126912</v>
+        <v>1.19567683447039</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.007247976301693604</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001321173844293533</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7470792397533188</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6756421655748781</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.807615564232606</v>
       </c>
       <c r="N25">
-        <v>4.212081276363733</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.015178853824246</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.190078601499721</v>
+        <v>1.082400832013377</v>
       </c>
       <c r="C2">
-        <v>0.3558902321734365</v>
+        <v>0.405181886608716</v>
       </c>
       <c r="D2">
-        <v>0.1957803180499269</v>
+        <v>0.1959287010788984</v>
       </c>
       <c r="E2">
-        <v>1.279238599613365</v>
+        <v>1.280898236376473</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.076871664282763</v>
+        <v>0.9105823406355853</v>
       </c>
       <c r="H2">
-        <v>0.003667158107889534</v>
+        <v>0.00381256473636582</v>
       </c>
       <c r="I2">
-        <v>0.0004916651333686239</v>
+        <v>0.0005369844812479485</v>
       </c>
       <c r="J2">
-        <v>0.6977214586911771</v>
+        <v>0.6564151425442333</v>
       </c>
       <c r="K2">
-        <v>0.6344783200136064</v>
+        <v>0.5293613307662994</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2508562712419824</v>
       </c>
       <c r="M2">
-        <v>1.514244011514506</v>
+        <v>0.1547294892709203</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.476899203348239</v>
       </c>
       <c r="P2">
-        <v>1.048993809519288</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9470770427330812</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.034121743105317</v>
+        <v>0.945460025812082</v>
       </c>
       <c r="C3">
-        <v>0.3080645016881078</v>
+        <v>0.348605727985273</v>
       </c>
       <c r="D3">
-        <v>0.1698386470059177</v>
+        <v>0.1700503572154588</v>
       </c>
       <c r="E3">
-        <v>1.109586919466395</v>
+        <v>1.112077222267374</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.991451479343965</v>
+        <v>0.8468700818435053</v>
       </c>
       <c r="H3">
-        <v>0.00186091054204951</v>
+        <v>0.002035434303139017</v>
       </c>
       <c r="I3">
-        <v>0.0009685447242393508</v>
+        <v>0.0007245910053601534</v>
       </c>
       <c r="J3">
-        <v>0.66192023576005</v>
+        <v>0.625536396529256</v>
       </c>
       <c r="K3">
-        <v>0.6028254751079842</v>
+        <v>0.5096900577053773</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2502327017273878</v>
       </c>
       <c r="M3">
-        <v>1.314560844429337</v>
+        <v>0.1415733051159762</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.284664333702636</v>
       </c>
       <c r="P3">
-        <v>1.068935978548843</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9739632401618223</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9382063970137438</v>
+        <v>0.8609273887621214</v>
       </c>
       <c r="C4">
-        <v>0.2791239251021409</v>
+        <v>0.314409066983302</v>
       </c>
       <c r="D4">
-        <v>0.1540583080756193</v>
+        <v>0.1542960069608199</v>
       </c>
       <c r="E4">
-        <v>1.005900679063956</v>
+        <v>1.008799153796318</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.939507237631787</v>
+        <v>0.8081660653503207</v>
       </c>
       <c r="H4">
-        <v>0.001029567217222027</v>
+        <v>0.00119413890156661</v>
       </c>
       <c r="I4">
-        <v>0.00157956810859794</v>
+        <v>0.001085945348209716</v>
       </c>
       <c r="J4">
-        <v>0.64025827787043</v>
+        <v>0.6065166520067891</v>
       </c>
       <c r="K4">
-        <v>0.5835485481189195</v>
+        <v>0.4976034450412001</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2496680005635739</v>
       </c>
       <c r="M4">
-        <v>1.192274734208411</v>
+        <v>0.1341955499572123</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.166729818359244</v>
       </c>
       <c r="P4">
-        <v>1.081503030176812</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9907684254716536</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8981192528897282</v>
+        <v>0.8254881933560796</v>
       </c>
       <c r="C5">
-        <v>0.2678586778481815</v>
+        <v>0.3010447505719185</v>
       </c>
       <c r="D5">
-        <v>0.1476590558385737</v>
+        <v>0.1479046736957912</v>
       </c>
       <c r="E5">
-        <v>0.9637287181568723</v>
+        <v>0.9667718206660112</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.91726333499264</v>
+        <v>0.791433875997015</v>
       </c>
       <c r="H5">
-        <v>0.0007549997765661232</v>
+        <v>0.0009090662185058385</v>
       </c>
       <c r="I5">
-        <v>0.001977125323228801</v>
+        <v>0.001376242787565651</v>
       </c>
       <c r="J5">
-        <v>0.6309016265142873</v>
+        <v>0.5981927897847754</v>
       </c>
       <c r="K5">
-        <v>0.5749228764599863</v>
+        <v>0.4919803148424791</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.249080806995309</v>
       </c>
       <c r="M5">
-        <v>1.142160094651132</v>
+        <v>0.131152342850033</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.118356276736563</v>
       </c>
       <c r="P5">
-        <v>1.085945219157786</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9970992843196349</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8902966309447606</v>
+        <v>0.818529724924332</v>
       </c>
       <c r="C6">
-        <v>0.2665243550341927</v>
+        <v>0.2993807451468911</v>
       </c>
       <c r="D6">
-        <v>0.1465967028744046</v>
+        <v>0.1468436284608003</v>
       </c>
       <c r="E6">
-        <v>0.9567115246676678</v>
+        <v>0.9597787003651206</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.912126315102924</v>
+        <v>0.7873788106453787</v>
       </c>
       <c r="H6">
-        <v>0.0007122724183852291</v>
+        <v>0.0008642195441583844</v>
       </c>
       <c r="I6">
-        <v>0.002144447935419791</v>
+        <v>0.001540203563433096</v>
       </c>
       <c r="J6">
-        <v>0.6286162680944187</v>
+        <v>0.5961312533154626</v>
       </c>
       <c r="K6">
-        <v>0.572510268433696</v>
+        <v>0.4902012581705861</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2486013470296413</v>
       </c>
       <c r="M6">
-        <v>1.133424741640937</v>
+        <v>0.1304004013309701</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.109929920448593</v>
       </c>
       <c r="P6">
-        <v>1.085766606118597</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9974386998674696</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9344769492264788</v>
+        <v>0.8567698538660693</v>
       </c>
       <c r="C7">
-        <v>0.2804245525956901</v>
+        <v>0.3148700968895923</v>
       </c>
       <c r="D7">
-        <v>0.1539672570251014</v>
+        <v>0.1542024390500245</v>
       </c>
       <c r="E7">
-        <v>1.005275848457813</v>
+        <v>1.008142623062838</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.9352418729888399</v>
+        <v>0.8081179113094947</v>
       </c>
       <c r="H7">
-        <v>0.001022526989771677</v>
+        <v>0.001184869512613318</v>
       </c>
       <c r="I7">
-        <v>0.001831937824444907</v>
+        <v>0.001380083429751267</v>
       </c>
       <c r="J7">
-        <v>0.6381208477641707</v>
+        <v>0.5971037627444247</v>
       </c>
       <c r="K7">
-        <v>0.5807465797381965</v>
+        <v>0.4941779178382717</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2481838712610411</v>
       </c>
       <c r="M7">
-        <v>1.19045459311107</v>
+        <v>0.1331075652152443</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.163313179913757</v>
       </c>
       <c r="P7">
-        <v>1.079059121340471</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9879215998148467</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.132057020678815</v>
+        <v>1.028828669162834</v>
       </c>
       <c r="C8">
-        <v>0.3412436501418767</v>
+        <v>0.3846671859810442</v>
       </c>
       <c r="D8">
-        <v>0.1867948849660479</v>
+        <v>0.1869570259019468</v>
       </c>
       <c r="E8">
-        <v>1.220546508866221</v>
+        <v>1.222388441348613</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.042035985794612</v>
+        <v>0.8962254604346356</v>
       </c>
       <c r="H8">
-        <v>0.002977085931074264</v>
+        <v>0.003128075835275856</v>
       </c>
       <c r="I8">
-        <v>0.0008761468271938355</v>
+        <v>0.0008919651297762954</v>
       </c>
       <c r="J8">
-        <v>0.6826416644858142</v>
+        <v>0.6188170346864155</v>
       </c>
       <c r="K8">
-        <v>0.6199665974073767</v>
+        <v>0.5161086106057979</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2479943106082558</v>
       </c>
       <c r="M8">
-        <v>1.443773412209566</v>
+        <v>0.1478562713574902</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.403481364822369</v>
       </c>
       <c r="P8">
-        <v>1.05254301261823</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9506578903100902</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.524615975735145</v>
+        <v>1.371028743772712</v>
       </c>
       <c r="C9">
-        <v>0.4618069654521548</v>
+        <v>0.5267974929766979</v>
       </c>
       <c r="D9">
-        <v>0.2525728254073414</v>
+        <v>0.2524760529423133</v>
       </c>
       <c r="E9">
-        <v>1.647762361872807</v>
+        <v>1.646768496946763</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.263444649723027</v>
+        <v>1.065920660603197</v>
       </c>
       <c r="H9">
-        <v>0.009254162241090907</v>
+        <v>0.009140738190733327</v>
       </c>
       <c r="I9">
-        <v>0.001392387621790725</v>
+        <v>0.001611390842541915</v>
       </c>
       <c r="J9">
-        <v>0.776478475107325</v>
+        <v>0.690963378689645</v>
       </c>
       <c r="K9">
-        <v>0.7032571154846039</v>
+        <v>0.5671165251935264</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2495445582195543</v>
       </c>
       <c r="M9">
-        <v>1.946249701940729</v>
+        <v>0.1850660445178605</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.884147028345353</v>
       </c>
       <c r="P9">
-        <v>1.007738591511732</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8870298748373884</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.802781626492958</v>
+        <v>1.60813608820456</v>
       </c>
       <c r="C10">
-        <v>0.5478732836069753</v>
+        <v>0.6227236332829023</v>
       </c>
       <c r="D10">
-        <v>0.3019838089228983</v>
+        <v>0.3015673081233388</v>
       </c>
       <c r="E10">
-        <v>1.866313775426136</v>
+        <v>1.862398911552773</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.405716807355219</v>
+        <v>1.196048176357067</v>
       </c>
       <c r="H10">
-        <v>0.01516873766565663</v>
+        <v>0.01465733393188584</v>
       </c>
       <c r="I10">
-        <v>0.003799973461620532</v>
+        <v>0.00370472725662907</v>
       </c>
       <c r="J10">
-        <v>0.8356184574519432</v>
+        <v>0.6922971864898102</v>
       </c>
       <c r="K10">
-        <v>0.7536137132104912</v>
+        <v>0.589822366657188</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2444169742502353</v>
       </c>
       <c r="M10">
-        <v>2.302638676917496</v>
+        <v>0.2100680119894491</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.213758785402547</v>
       </c>
       <c r="P10">
-        <v>0.9656068879523048</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.8301939933057767</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.845303202977647</v>
+        <v>1.643954166176826</v>
       </c>
       <c r="C11">
-        <v>0.5346523475962215</v>
+        <v>0.5941534337619032</v>
       </c>
       <c r="D11">
-        <v>0.3240003849994793</v>
+        <v>0.3234498678480549</v>
       </c>
       <c r="E11">
-        <v>1.195002847898365</v>
+        <v>1.191266877207255</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.273210139752933</v>
+        <v>1.127548747572362</v>
       </c>
       <c r="H11">
-        <v>0.03142546397608825</v>
+        <v>0.0308538223709931</v>
       </c>
       <c r="I11">
-        <v>0.004845990333704364</v>
+        <v>0.004706466150630639</v>
       </c>
       <c r="J11">
-        <v>0.7650148454962959</v>
+        <v>0.5553223016451057</v>
       </c>
       <c r="K11">
-        <v>0.6805131444197769</v>
+        <v>0.5196907844580423</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2137903192372193</v>
       </c>
       <c r="M11">
-        <v>2.324478528092925</v>
+        <v>0.1892543756633032</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.214861399269694</v>
       </c>
       <c r="P11">
-        <v>0.8641281763267159</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7511735385520453</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.827153557701877</v>
+        <v>1.631386051453632</v>
       </c>
       <c r="C12">
-        <v>0.5038256298763315</v>
+        <v>0.5520300760843782</v>
       </c>
       <c r="D12">
-        <v>0.3320845333566638</v>
+        <v>0.3315120257611426</v>
       </c>
       <c r="E12">
-        <v>0.7127294518060694</v>
+        <v>0.7098238922785214</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.142881970176006</v>
+        <v>1.035862882559684</v>
       </c>
       <c r="H12">
-        <v>0.06800902347598736</v>
+        <v>0.06748275878102561</v>
       </c>
       <c r="I12">
-        <v>0.00476937856048476</v>
+        <v>0.004628706995722709</v>
       </c>
       <c r="J12">
-        <v>0.6982575739507269</v>
+        <v>0.4755478363906462</v>
       </c>
       <c r="K12">
-        <v>0.6152454031360648</v>
+        <v>0.4658086400229777</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1931502217975272</v>
       </c>
       <c r="M12">
-        <v>2.269251149267319</v>
+        <v>0.1697803435825485</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.154340047519923</v>
       </c>
       <c r="P12">
-        <v>0.800898800626598</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.712040039484851</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.756412108914049</v>
+        <v>1.57838886415405</v>
       </c>
       <c r="C13">
-        <v>0.4602984437537714</v>
+        <v>0.501510814829544</v>
       </c>
       <c r="D13">
-        <v>0.3297683273931113</v>
+        <v>0.329277032419995</v>
       </c>
       <c r="E13">
-        <v>0.3487297910656082</v>
+        <v>0.3469016729471406</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.000917293737189</v>
+        <v>0.908883876677109</v>
       </c>
       <c r="H13">
-        <v>0.121666720236675</v>
+        <v>0.1212599387134787</v>
       </c>
       <c r="I13">
-        <v>0.004161850320061333</v>
+        <v>0.004140360294936585</v>
       </c>
       <c r="J13">
-        <v>0.6275894759617131</v>
+        <v>0.4361767337225757</v>
       </c>
       <c r="K13">
-        <v>0.5481297243486907</v>
+        <v>0.4189206440095035</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1773833841667241</v>
       </c>
       <c r="M13">
-        <v>2.150312567000299</v>
+        <v>0.1498812530663507</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.045788807356644</v>
       </c>
       <c r="P13">
-        <v>0.7588362927952907</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6957879220940928</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.682638633209194</v>
+        <v>1.522267786205788</v>
       </c>
       <c r="C14">
-        <v>0.4250030425172895</v>
+        <v>0.4629738966937964</v>
       </c>
       <c r="D14">
-        <v>0.3234597147716585</v>
+        <v>0.3230667658846329</v>
       </c>
       <c r="E14">
-        <v>0.1659432452181449</v>
+        <v>0.1648056850454225</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8969596414526819</v>
+        <v>0.8067623883106307</v>
       </c>
       <c r="H14">
-        <v>0.1696502771588797</v>
+        <v>0.1693454906711054</v>
       </c>
       <c r="I14">
-        <v>0.003633518444722483</v>
+        <v>0.003743975063492222</v>
       </c>
       <c r="J14">
-        <v>0.576583771360248</v>
+        <v>0.4227555107592309</v>
       </c>
       <c r="K14">
-        <v>0.5004265117641751</v>
+        <v>0.3885454981227099</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1680514493992042</v>
       </c>
       <c r="M14">
-        <v>2.038879222054419</v>
+        <v>0.1357415097351549</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.948089407957895</v>
       </c>
       <c r="P14">
-        <v>0.7397086483577091</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6938189433510802</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.65241070638524</v>
+        <v>1.498771370465732</v>
       </c>
       <c r="C15">
-        <v>0.4141793334047179</v>
+        <v>0.4519595034230406</v>
       </c>
       <c r="D15">
-        <v>0.3197089264163395</v>
+        <v>0.3193597977920177</v>
       </c>
       <c r="E15">
-        <v>0.1303496395700172</v>
+        <v>0.129403187175253</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8674929467121473</v>
+        <v>0.7746326140342603</v>
       </c>
       <c r="H15">
-        <v>0.1817039320850711</v>
+        <v>0.1814381638915847</v>
       </c>
       <c r="I15">
-        <v>0.003513288590950125</v>
+        <v>0.003695995432069665</v>
       </c>
       <c r="J15">
-        <v>0.5625327634068213</v>
+        <v>0.4247554557137931</v>
       </c>
       <c r="K15">
-        <v>0.4873450427792676</v>
+        <v>0.3812967508325897</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1662004504383994</v>
       </c>
       <c r="M15">
-        <v>1.997995623542096</v>
+        <v>0.1318191383962883</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.913378596621897</v>
       </c>
       <c r="P15">
-        <v>0.7378622348335924</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.6961694244018313</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.547229492866165</v>
+        <v>1.414234689515183</v>
       </c>
       <c r="C16">
-        <v>0.3881695144426374</v>
+        <v>0.430336974061504</v>
       </c>
       <c r="D16">
-        <v>0.2986743454048479</v>
+        <v>0.298501621907846</v>
       </c>
       <c r="E16">
-        <v>0.1265192426200699</v>
+        <v>0.126031536378477</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8360665887245347</v>
+        <v>0.717793162756422</v>
       </c>
       <c r="H16">
-        <v>0.1673065544627264</v>
+        <v>0.1671816341013965</v>
       </c>
       <c r="I16">
-        <v>0.002746894854858795</v>
+        <v>0.003106558780562096</v>
       </c>
       <c r="J16">
-        <v>0.5515512614422278</v>
+        <v>0.4745882086969715</v>
       </c>
       <c r="K16">
-        <v>0.4790354614231447</v>
+        <v>0.38654561958991</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1717568744055065</v>
       </c>
       <c r="M16">
-        <v>1.871699325673887</v>
+        <v>0.1286815629636919</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.810963361885769</v>
       </c>
       <c r="P16">
-        <v>0.761939158139441</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7207374307820007</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.505395681176111</v>
+        <v>1.377767017136847</v>
       </c>
       <c r="C17">
-        <v>0.3867667481947876</v>
+        <v>0.4330149045506175</v>
       </c>
       <c r="D17">
-        <v>0.2859693214983281</v>
+        <v>0.2858691325281484</v>
       </c>
       <c r="E17">
-        <v>0.2067752851113696</v>
+        <v>0.2064326923983444</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8660930201641008</v>
+        <v>0.7308075846427045</v>
       </c>
       <c r="H17">
-        <v>0.1289017455141845</v>
+        <v>0.1288294663715988</v>
       </c>
       <c r="I17">
-        <v>0.002468761814006903</v>
+        <v>0.002888449850600772</v>
       </c>
       <c r="J17">
-        <v>0.5697923140366896</v>
+        <v>0.516183768966215</v>
       </c>
       <c r="K17">
-        <v>0.4974773223780886</v>
+        <v>0.4058298423709417</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.181063241300528</v>
       </c>
       <c r="M17">
-        <v>1.833495365738003</v>
+        <v>0.1331266975573122</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.781466211345958</v>
       </c>
       <c r="P17">
-        <v>0.7900019670364351</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7418091138423737</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.515803521889751</v>
+        <v>1.382681820204141</v>
       </c>
       <c r="C18">
-        <v>0.4057565928563065</v>
+        <v>0.4582034442684062</v>
       </c>
       <c r="D18">
-        <v>0.278886869658109</v>
+        <v>0.2787968230798157</v>
       </c>
       <c r="E18">
-        <v>0.4309009211630297</v>
+        <v>0.4304813213813077</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.9581013648199672</v>
+        <v>0.8022053897100818</v>
       </c>
       <c r="H18">
-        <v>0.07650938909129934</v>
+        <v>0.0764393092609339</v>
       </c>
       <c r="I18">
-        <v>0.002212987462341331</v>
+        <v>0.002592719879056737</v>
       </c>
       <c r="J18">
-        <v>0.6178975547371834</v>
+        <v>0.5682971179148666</v>
       </c>
       <c r="K18">
-        <v>0.5444214249132671</v>
+        <v>0.4439783091380676</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1964898299126681</v>
       </c>
       <c r="M18">
-        <v>1.867754610860203</v>
+        <v>0.1461089200209393</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.816261501998554</v>
       </c>
       <c r="P18">
-        <v>0.8305069559187359</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.767287779418135</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.561933312274562</v>
+        <v>1.416054838096983</v>
       </c>
       <c r="C19">
-        <v>0.4435931561922644</v>
+        <v>0.5045501582156078</v>
       </c>
       <c r="D19">
-        <v>0.2768085160122098</v>
+        <v>0.2766822196000192</v>
       </c>
       <c r="E19">
-        <v>0.8513044808852328</v>
+        <v>0.8504836592712195</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.092671578259555</v>
+        <v>0.9116807747110585</v>
       </c>
       <c r="H19">
-        <v>0.03307083627790064</v>
+        <v>0.03295589532881849</v>
       </c>
       <c r="I19">
-        <v>0.002520552798499942</v>
+        <v>0.002900035357411568</v>
       </c>
       <c r="J19">
-        <v>0.6858129748545281</v>
+        <v>0.6287133658082666</v>
       </c>
       <c r="K19">
-        <v>0.6095923841797628</v>
+        <v>0.4938279401700214</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2154570672458327</v>
       </c>
       <c r="M19">
-        <v>1.957111005810617</v>
+        <v>0.1647282183632264</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.901041193568204</v>
       </c>
       <c r="P19">
-        <v>0.8828032247147064</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7985375313639764</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.71901029478073</v>
+        <v>1.53920868972574</v>
       </c>
       <c r="C20">
-        <v>0.5294324293401758</v>
+        <v>0.6050375418644194</v>
       </c>
       <c r="D20">
-        <v>0.2888889569371855</v>
+        <v>0.2885869895472837</v>
       </c>
       <c r="E20">
-        <v>1.804290832668912</v>
+        <v>1.801396446899957</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.354676186677807</v>
+        <v>1.136275807523646</v>
       </c>
       <c r="H20">
-        <v>0.01342272099362507</v>
+        <v>0.01305600333823609</v>
       </c>
       <c r="I20">
-        <v>0.003721397442206786</v>
+        <v>0.003928828806341045</v>
       </c>
       <c r="J20">
-        <v>0.8131948521118204</v>
+        <v>0.711753683162442</v>
       </c>
       <c r="K20">
-        <v>0.7314704261730967</v>
+        <v>0.5802072981679842</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2444465256474793</v>
       </c>
       <c r="M20">
-        <v>2.204358166725513</v>
+        <v>0.2018895724669036</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.129212744072504</v>
       </c>
       <c r="P20">
-        <v>0.9688014556194915</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8426122254026893</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.948901337828687</v>
+        <v>1.71815690685716</v>
       </c>
       <c r="C21">
-        <v>0.6057668776414857</v>
+        <v>0.6737746682853754</v>
       </c>
       <c r="D21">
-        <v>0.3274122958691237</v>
+        <v>0.3267023411959258</v>
       </c>
       <c r="E21">
-        <v>2.128523816647316</v>
+        <v>2.121809150425719</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.503182734399388</v>
+        <v>1.343570429039147</v>
       </c>
       <c r="H21">
-        <v>0.01944279110293401</v>
+        <v>0.01853217409497465</v>
       </c>
       <c r="I21">
-        <v>0.006278510121221714</v>
+        <v>0.005890788683863946</v>
       </c>
       <c r="J21">
-        <v>0.8780876034665823</v>
+        <v>0.6006379925444065</v>
       </c>
       <c r="K21">
-        <v>0.7893318606473088</v>
+        <v>0.5927573767175431</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2388828518151733</v>
       </c>
       <c r="M21">
-        <v>2.505027592316083</v>
+        <v>0.2199077072808322</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.373547757634725</v>
       </c>
       <c r="P21">
-        <v>0.9545546215841014</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7951482746246583</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.09929547746151</v>
+        <v>1.833937197977775</v>
       </c>
       <c r="C22">
-        <v>0.651283021034061</v>
+        <v>0.7120592915597399</v>
       </c>
       <c r="D22">
-        <v>0.352882999720677</v>
+        <v>0.3518623220526251</v>
       </c>
       <c r="E22">
-        <v>2.291165105701495</v>
+        <v>2.281728255708558</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.595199846069391</v>
+        <v>1.485354165344887</v>
       </c>
       <c r="H22">
-        <v>0.02357590685523547</v>
+        <v>0.0222458290069425</v>
       </c>
       <c r="I22">
-        <v>0.008118164425769514</v>
+        <v>0.007115008754164265</v>
       </c>
       <c r="J22">
-        <v>0.9180884331281618</v>
+        <v>0.5257042149064262</v>
       </c>
       <c r="K22">
-        <v>0.8255433701796662</v>
+        <v>0.5982037339043771</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.234322624584248</v>
       </c>
       <c r="M22">
-        <v>2.696278103258237</v>
+        <v>0.2309896786586449</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.524601551655337</v>
       </c>
       <c r="P22">
-        <v>0.9436388645303424</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7627612704966538</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.022930208151706</v>
+        <v>1.777818083051216</v>
       </c>
       <c r="C23">
-        <v>0.6251285998235403</v>
+        <v>0.6921491787882985</v>
       </c>
       <c r="D23">
-        <v>0.3392674882588551</v>
+        <v>0.3384283952538425</v>
       </c>
       <c r="E23">
-        <v>2.204319110509701</v>
+        <v>2.196465782772535</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.550708899439968</v>
+        <v>1.402651450220191</v>
       </c>
       <c r="H23">
-        <v>0.0213408231843184</v>
+        <v>0.0202554705873943</v>
       </c>
       <c r="I23">
-        <v>0.006830236609485674</v>
+        <v>0.006118434652826465</v>
       </c>
       <c r="J23">
-        <v>0.8990583999402588</v>
+        <v>0.5824632157642924</v>
       </c>
       <c r="K23">
-        <v>0.8093587614486424</v>
+        <v>0.6004905081077254</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2385344657385957</v>
       </c>
       <c r="M23">
-        <v>2.59552482825103</v>
+        <v>0.227172474307558</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.44998408242725</v>
       </c>
       <c r="P23">
-        <v>0.9521616869411602</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7837654351750771</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.728368426947355</v>
+        <v>1.546882229256767</v>
       </c>
       <c r="C24">
-        <v>0.530589070925032</v>
+        <v>0.607097361252471</v>
       </c>
       <c r="D24">
-        <v>0.2883455768082399</v>
+        <v>0.2880391015433474</v>
       </c>
       <c r="E24">
-        <v>1.87817006737572</v>
+        <v>1.875152244757302</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.377354721601165</v>
+        <v>1.154697722917476</v>
       </c>
       <c r="H24">
-        <v>0.01375649857006944</v>
+        <v>0.01337702008535302</v>
       </c>
       <c r="I24">
-        <v>0.003310873380467427</v>
+        <v>0.003409258921673874</v>
       </c>
       <c r="J24">
-        <v>0.8245939872020358</v>
+        <v>0.7227464406789466</v>
       </c>
       <c r="K24">
-        <v>0.7439959112403756</v>
+        <v>0.5902551353956298</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2482846418266647</v>
       </c>
       <c r="M24">
-        <v>2.214275733302912</v>
+        <v>0.2056218327796486</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.138772540515674</v>
       </c>
       <c r="P24">
-        <v>0.9812633394637942</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8511436477208107</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.412484228092296</v>
+        <v>1.274486309035069</v>
       </c>
       <c r="C25">
-        <v>0.4313710679066105</v>
+        <v>0.4917974283023057</v>
       </c>
       <c r="D25">
-        <v>0.2345843517950641</v>
+        <v>0.2345817594206494</v>
       </c>
       <c r="E25">
-        <v>1.531360756959202</v>
+        <v>1.531333499301383</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.19567683447039</v>
+        <v>1.007780998876868</v>
       </c>
       <c r="H25">
-        <v>0.007247976301693604</v>
+        <v>0.00724505994335245</v>
       </c>
       <c r="I25">
-        <v>0.001321173844293533</v>
+        <v>0.001649365950200377</v>
       </c>
       <c r="J25">
-        <v>0.7470792397533188</v>
+        <v>0.6786958867238866</v>
       </c>
       <c r="K25">
-        <v>0.6756421655748781</v>
+        <v>0.5506694449339449</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2482712066616521</v>
       </c>
       <c r="M25">
-        <v>1.807615564232606</v>
+        <v>0.1734066010512265</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.754259173199358</v>
       </c>
       <c r="P25">
-        <v>1.015178853824246</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9020981322129842</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
